--- a/Work/CHR_annotation/1820 Journey to Sources of Jumna and Bhagirathi.xlsx
+++ b/Work/CHR_annotation/1820 Journey to Sources of Jumna and Bhagirathi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="2249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4061" uniqueCount="2330">
   <si>
     <t xml:space="preserve">Geographical Entities (A)</t>
   </si>
@@ -5098,6 +5098,249 @@
   </si>
   <si>
     <t xml:space="preserve">Stango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moral-Ca-Canda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benal That</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sambracot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James B. Fraser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maha Deo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fir Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chamri-Ca-Ghat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candaca Ghat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loha Cundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhuv Sinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorthas, Gorchas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parduman Sah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirinagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bongi-Ca-Tiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangotri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thacurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhodendrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raingerh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangani-Ca Ghat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zamindars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhaman Chand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jauntgerh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bender Puchh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiran-Ca-Tiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmed Sinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gothar-Ci-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamnotri, Jumnotri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sari-Gari-Ci-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daulat Sinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necral-Ci-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cedar-Canta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangani-Ci-Dhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baugi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shealu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dehra Dun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sueral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gundiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jauntgurh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renai-Ci-Dhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarulal-Ca-Tiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chamri-Ci-Dhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachuncha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cimola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bander-Chat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buruftli-Ci-Dhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakha-Mandal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benai-Ci-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gadu-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirmor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhulu Dhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barni-Ci-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biraltu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bediar-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maungral-Gerh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banchauli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palsa-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sircot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rewaen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anhul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ifhna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bercot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pothi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunaldi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duckheat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagwin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shealwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curfala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Than</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phuldar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagwar</t>
   </si>
   <si>
     <t xml:space="preserve">Ganges, Gunga, Gungagee, Gunga Jee</t>
@@ -6787,7 +7030,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6809,6 +7052,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7105,7 +7354,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7294,6 +7543,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -13973,10 +14234,10 @@
     </row>
     <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>1949</v>
+        <v>2030</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>2051</v>
+        <v>2132</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -13984,10 +14245,10 @@
       <c r="G6" s="6"/>
       <c r="H6" s="8"/>
       <c r="I6" s="5" t="s">
-        <v>1943</v>
+        <v>2024</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>2052</v>
+        <v>2133</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9" t="s">
@@ -13997,7 +14258,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6" t="s">
-        <v>2053</v>
+        <v>2134</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -14011,7 +14272,7 @@
         <v>259</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>2054</v>
+        <v>2135</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -14019,10 +14280,10 @@
       <c r="G7" s="6"/>
       <c r="H7" s="8"/>
       <c r="I7" s="5" t="s">
-        <v>2055</v>
+        <v>2136</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>2056</v>
+        <v>2137</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>26</v>
@@ -14034,7 +14295,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6" t="s">
-        <v>2057</v>
+        <v>2138</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -14045,10 +14306,10 @@
     </row>
     <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>2058</v>
+        <v>2139</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>2059</v>
+        <v>2140</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -14056,7 +14317,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="8"/>
       <c r="I8" s="5" t="s">
-        <v>2060</v>
+        <v>2141</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15" t="s">
@@ -14078,10 +14339,10 @@
     </row>
     <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>2061</v>
+        <v>2142</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>2062</v>
+        <v>2143</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -14089,7 +14350,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9" t="s">
-        <v>2063</v>
+        <v>2144</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15" t="s">
@@ -14111,7 +14372,7 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>2064</v>
+        <v>2145</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -14136,7 +14397,7 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>2065</v>
+        <v>2146</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -14186,7 +14447,7 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>2066</v>
+        <v>2147</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -14211,7 +14472,7 @@
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>2067</v>
+        <v>2148</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -14261,7 +14522,7 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>2068</v>
+        <v>2149</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -17554,13 +17815,13 @@
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="6" t="s">
-        <v>2069</v>
+        <v>2150</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>2070</v>
+        <v>2151</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>2071</v>
+        <v>2152</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="5"/>
@@ -17578,28 +17839,28 @@
         <v>241</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>2072</v>
+        <v>2153</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2073</v>
+        <v>2154</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>2074</v>
+        <v>2155</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="8" t="s">
-        <v>2075</v>
+        <v>2156</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2076</v>
+        <v>2157</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>2077</v>
+        <v>2158</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="15" t="s">
-        <v>2078</v>
+        <v>2159</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="5"/>
@@ -17610,10 +17871,10 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>2079</v>
+        <v>2160</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>2080</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17621,24 +17882,24 @@
         <v>231</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>2081</v>
+        <v>2162</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>2082</v>
+        <v>2163</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>2083</v>
+        <v>2164</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="8" t="s">
-        <v>2084</v>
+        <v>2165</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>2085</v>
+        <v>2166</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>2086</v>
+        <v>2167</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>26</v>
@@ -17657,39 +17918,39 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>2087</v>
+        <v>2168</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>2088</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>2089</v>
+        <v>2170</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>2090</v>
+        <v>2171</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2091</v>
+        <v>2172</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="8" t="s">
-        <v>2092</v>
+        <v>2173</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>2093</v>
+        <v>2174</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>2094</v>
+        <v>2175</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>2095</v>
+        <v>2176</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>26</v>
@@ -17705,28 +17966,28 @@
         <v>358</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>2096</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>2097</v>
+        <v>2178</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>2098</v>
+        <v>2179</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="8" t="s">
-        <v>2099</v>
+        <v>2180</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>2100</v>
+        <v>2181</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>26</v>
@@ -17747,10 +18008,10 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>2101</v>
+        <v>2182</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>2102</v>
+        <v>2183</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -17761,7 +18022,7 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="6" t="s">
-        <v>2103</v>
+        <v>2184</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -17788,7 +18049,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="8" t="s">
-        <v>2104</v>
+        <v>2185</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
@@ -17807,7 +18068,7 @@
     </row>
     <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>1791</v>
+        <v>1872</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -17815,7 +18076,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="8" t="s">
-        <v>2105</v>
+        <v>2186</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
@@ -17834,7 +18095,7 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>2106</v>
+        <v>2187</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -17842,7 +18103,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="8" t="s">
-        <v>2107</v>
+        <v>2188</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
@@ -17861,7 +18122,7 @@
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>2108</v>
+        <v>2189</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -17869,7 +18130,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="8" t="s">
-        <v>2109</v>
+        <v>2190</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
@@ -17888,7 +18149,7 @@
     </row>
     <row r="15" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
-        <v>2110</v>
+        <v>2191</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -17913,7 +18174,7 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>2111</v>
+        <v>2192</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -17938,7 +18199,7 @@
     </row>
     <row r="17" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
-        <v>2112</v>
+        <v>2193</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -17963,7 +18224,7 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
-        <v>2113</v>
+        <v>2194</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -17988,7 +18249,7 @@
     </row>
     <row r="19" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="s">
-        <v>2114</v>
+        <v>2195</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -18013,7 +18274,7 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
-        <v>2115</v>
+        <v>2196</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -18038,7 +18299,7 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
-        <v>2116</v>
+        <v>2197</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -18063,7 +18324,7 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
-        <v>2117</v>
+        <v>2198</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -18088,7 +18349,7 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
-        <v>2118</v>
+        <v>2199</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -18113,7 +18374,7 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
-        <v>2119</v>
+        <v>2200</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -18138,7 +18399,7 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
-        <v>2120</v>
+        <v>2201</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -18163,7 +18424,7 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
-        <v>2121</v>
+        <v>2202</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -18188,7 +18449,7 @@
     </row>
     <row r="27" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
-        <v>2122</v>
+        <v>2203</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -18213,7 +18474,7 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>2123</v>
+        <v>2204</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -18238,7 +18499,7 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="s">
-        <v>2124</v>
+        <v>2205</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -18263,7 +18524,7 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>2125</v>
+        <v>2206</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -18288,7 +18549,7 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="s">
-        <v>2126</v>
+        <v>2207</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -18313,7 +18574,7 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="s">
-        <v>2127</v>
+        <v>2208</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -18363,7 +18624,7 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
-        <v>2128</v>
+        <v>2209</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -18413,7 +18674,7 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="s">
-        <v>2129</v>
+        <v>2210</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -18438,7 +18699,7 @@
     </row>
     <row r="37" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5" t="s">
-        <v>2130</v>
+        <v>2211</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -18463,7 +18724,7 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5" t="s">
-        <v>2131</v>
+        <v>2212</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -18488,7 +18749,7 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="s">
-        <v>2132</v>
+        <v>2213</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -18513,7 +18774,7 @@
     </row>
     <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5" t="s">
-        <v>2133</v>
+        <v>2214</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -18538,7 +18799,7 @@
     </row>
     <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="s">
-        <v>2134</v>
+        <v>2215</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -18563,7 +18824,7 @@
     </row>
     <row r="42" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5" t="s">
-        <v>2135</v>
+        <v>2216</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -18588,7 +18849,7 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="s">
-        <v>2136</v>
+        <v>2217</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -18613,7 +18874,7 @@
     </row>
     <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="s">
-        <v>2137</v>
+        <v>2218</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -18638,7 +18899,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="s">
-        <v>2138</v>
+        <v>2219</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -18663,7 +18924,7 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
-        <v>2139</v>
+        <v>2220</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -18688,7 +18949,7 @@
     </row>
     <row r="47" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="s">
-        <v>2140</v>
+        <v>2221</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -18713,7 +18974,7 @@
     </row>
     <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5" t="s">
-        <v>2141</v>
+        <v>2222</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -21285,38 +21546,38 @@
     </row>
     <row r="6" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>2142</v>
+        <v>2223</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2143</v>
+        <v>2224</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>2144</v>
+        <v>2225</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>2145</v>
+        <v>2226</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="8" t="s">
         <v>131</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2146</v>
+        <v>2227</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>2147</v>
+        <v>2228</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>2148</v>
+        <v>2229</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>2149</v>
+        <v>2230</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
@@ -21335,22 +21596,22 @@
       <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>2150</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>2151</v>
+      <c r="D7" s="52" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>2232</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="35" t="s">
-        <v>2152</v>
+        <v>2233</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>2153</v>
+        <v>2234</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>2154</v>
+        <v>2235</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>26</v>
@@ -21375,25 +21636,25 @@
       <c r="B8" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>2155</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>2156</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>2157</v>
+      <c r="C8" s="52" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>2238</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="35" t="s">
-        <v>2158</v>
+        <v>2239</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>2159</v>
+        <v>2240</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>26</v>
@@ -21416,16 +21677,16 @@
     </row>
     <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="17" t="s">
-        <v>2160</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>2161</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>2162</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>2163</v>
+        <v>2241</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>2244</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -21436,7 +21697,7 @@
         <v>26</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>2164</v>
+        <v>2245</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>26</v>
@@ -21461,17 +21722,17 @@
       <c r="B10" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>2165</v>
+      <c r="D10" s="52" t="s">
+        <v>2246</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="35" t="s">
-        <v>2166</v>
+        <v>2247</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
@@ -21490,19 +21751,19 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="17" t="s">
-        <v>2167</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>2168</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>2169</v>
+        <v>2248</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>2250</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="35" t="s">
-        <v>2170</v>
+        <v>2251</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
@@ -21521,19 +21782,19 @@
     </row>
     <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="17" t="s">
-        <v>2171</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>2172</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>2173</v>
+        <v>2252</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>2254</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="35" t="s">
-        <v>2174</v>
+        <v>2255</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
@@ -21552,19 +21813,19 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="17" t="s">
-        <v>2175</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>2176</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>2177</v>
+        <v>2256</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>2258</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="35" t="s">
-        <v>2178</v>
+        <v>2259</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
@@ -21583,19 +21844,19 @@
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="17" t="s">
-        <v>2179</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>2172</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>2180</v>
+        <v>2260</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>2261</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="35" t="s">
-        <v>2181</v>
+        <v>2262</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
@@ -21614,19 +21875,19 @@
     </row>
     <row r="15" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="17" t="s">
-        <v>2182</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>2183</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>2184</v>
+        <v>2263</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>2265</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="35" t="s">
-        <v>2185</v>
+        <v>2266</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="6"/>
@@ -21645,19 +21906,19 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="17" t="s">
-        <v>2186</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>2187</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>2188</v>
+        <v>2267</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>2269</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="35" t="s">
-        <v>2189</v>
+        <v>2270</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="6"/>
@@ -21676,19 +21937,19 @@
     </row>
     <row r="17" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="17" t="s">
-        <v>2190</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>2191</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>2192</v>
+        <v>2271</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>2273</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="35" t="s">
-        <v>2193</v>
+        <v>2274</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="6"/>
@@ -21707,19 +21968,19 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="17" t="s">
-        <v>2194</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>2195</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>2196</v>
+        <v>2275</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>2277</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="35" t="s">
-        <v>2197</v>
+        <v>2278</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="6"/>
@@ -21740,11 +22001,11 @@
       <c r="B19" s="17" t="s">
         <v>1495</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="52" t="s">
         <v>1408</v>
       </c>
-      <c r="D19" s="49" t="s">
-        <v>2198</v>
+      <c r="D19" s="52" t="s">
+        <v>2279</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -21767,13 +22028,13 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="17" t="s">
-        <v>2199</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>2200</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>2201</v>
+        <v>2280</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>2282</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -21796,12 +22057,12 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="17" t="s">
-        <v>2202</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>2203</v>
-      </c>
-      <c r="D21" s="49" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D21" s="52" t="s">
         <v>617</v>
       </c>
       <c r="E21" s="6"/>
@@ -21825,13 +22086,13 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="17" t="s">
-        <v>2204</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>2205</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>2206</v>
+        <v>2285</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>2287</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -21854,13 +22115,13 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="17" t="s">
-        <v>2207</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>2208</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>2209</v>
+        <v>2288</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>2290</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -21883,10 +22144,10 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="17" t="s">
-        <v>2210</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>2211</v>
+        <v>2291</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>2292</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -21910,10 +22171,10 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="17" t="s">
-        <v>2212</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>2213</v>
+        <v>2293</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>2294</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -21937,10 +22198,10 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="17" t="s">
-        <v>2214</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>2215</v>
+        <v>2295</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>2296</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -21964,10 +22225,10 @@
     </row>
     <row r="27" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="17" t="s">
-        <v>2216</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>2217</v>
+        <v>2297</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>2298</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -21991,9 +22252,9 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="17" t="s">
-        <v>2218</v>
-      </c>
-      <c r="C28" s="49" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C28" s="52" t="s">
         <v>1423</v>
       </c>
       <c r="D28" s="6"/>
@@ -22018,10 +22279,10 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="17" t="s">
-        <v>2219</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>2220</v>
+        <v>2300</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>2301</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -22045,10 +22306,10 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="17" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>2221</v>
+        <v>1937</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>2302</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -22072,10 +22333,10 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="17" t="s">
-        <v>2222</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>2223</v>
+        <v>2303</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>2304</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -22099,10 +22360,10 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="17" t="s">
-        <v>2224</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>2225</v>
+        <v>2305</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>2306</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -22126,10 +22387,10 @@
     </row>
     <row r="33" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="17" t="s">
-        <v>2226</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>2227</v>
+        <v>2307</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>2308</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -22153,10 +22414,10 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="17" t="s">
-        <v>2228</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>2229</v>
+        <v>2309</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>2310</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -22180,10 +22441,10 @@
     </row>
     <row r="35" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="17" t="s">
-        <v>2230</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>2231</v>
+        <v>2311</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>2312</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -22207,10 +22468,10 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="17" t="s">
-        <v>2232</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>2233</v>
+        <v>2313</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>2314</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -22236,8 +22497,8 @@
       <c r="B37" s="17" t="s">
         <v>997</v>
       </c>
-      <c r="C37" s="49" t="s">
-        <v>2234</v>
+      <c r="C37" s="52" t="s">
+        <v>2315</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -22261,10 +22522,10 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="17" t="s">
-        <v>2235</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>2236</v>
+        <v>2316</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>2317</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -22288,10 +22549,10 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="17" t="s">
-        <v>2237</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>2238</v>
+        <v>2318</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>2319</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -22315,7 +22576,7 @@
     </row>
     <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="17" t="s">
-        <v>2239</v>
+        <v>2320</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -22340,7 +22601,7 @@
     </row>
     <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="17" t="s">
-        <v>2240</v>
+        <v>2321</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -22365,7 +22626,7 @@
     </row>
     <row r="42" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="17" t="s">
-        <v>2241</v>
+        <v>2322</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -22390,7 +22651,7 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="17" t="s">
-        <v>2242</v>
+        <v>2323</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -22415,7 +22676,7 @@
     </row>
     <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="17" t="s">
-        <v>2243</v>
+        <v>2324</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -22440,7 +22701,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="17" t="s">
-        <v>2244</v>
+        <v>2325</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -22465,7 +22726,7 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="17" t="s">
-        <v>2245</v>
+        <v>2326</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -22515,7 +22776,7 @@
     </row>
     <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="17" t="s">
-        <v>2246</v>
+        <v>2327</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -22540,7 +22801,7 @@
     </row>
     <row r="49" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="17" t="s">
-        <v>2247</v>
+        <v>2328</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -22565,7 +22826,7 @@
     </row>
     <row r="50" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5" t="s">
-        <v>2248</v>
+        <v>2329</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -49603,8 +49864,8 @@
   </sheetPr>
   <dimension ref="B3:V178"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G8" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49781,40 +50042,82 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+    <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="5" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>1690</v>
+      </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="9"/>
+      <c r="G6" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>1692</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>519</v>
+      </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="9"/>
+      <c r="M6" s="9" t="s">
+        <v>1693</v>
+      </c>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="8"/>
-    </row>
-    <row r="7" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="T6" s="6" t="s">
+        <v>1694</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>1697</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="H7" s="8" t="s">
+        <v>1698</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>1699</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>1700</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>1701</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="15"/>
       <c r="N7" s="5"/>
@@ -49823,21 +50126,39 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="T7" s="6" t="s">
+        <v>1702</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>349</v>
+      </c>
       <c r="V7" s="8"/>
     </row>
-    <row r="8" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+    <row r="8" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1704</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="9"/>
+      <c r="H8" s="6" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>960</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="18"/>
       <c r="N8" s="5"/>
@@ -49846,21 +50167,37 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
+      <c r="T8" s="6" t="s">
+        <v>1707</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>358</v>
+      </c>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+    <row r="9" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="5" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1710</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="6" t="s">
+        <v>1141</v>
+      </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="J9" s="15" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>1712</v>
+      </c>
       <c r="L9" s="15"/>
       <c r="M9" s="18"/>
       <c r="N9" s="5"/>
@@ -49873,17 +50210,27 @@
       <c r="U9" s="6"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+    <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1714</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="8" t="s">
+        <v>1715</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>1716</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="8"/>
       <c r="N10" s="5"/>
@@ -49896,17 +50243,27 @@
       <c r="U10" s="6"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+    <row r="11" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1718</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="0" t="s">
+        <v>1719</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>1720</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="8"/>
       <c r="N11" s="5"/>
@@ -49919,14 +50276,22 @@
       <c r="U11" s="6"/>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+    <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1722</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>997</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -49942,14 +50307,22 @@
       <c r="U12" s="6"/>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+    <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1725</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>1726</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -49965,14 +50338,22 @@
       <c r="U13" s="6"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+    <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="5" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1729</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>1730</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -49988,14 +50369,22 @@
       <c r="U14" s="6"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+    <row r="15" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1733</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>1734</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -50011,14 +50400,22 @@
       <c r="U15" s="6"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+    <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="5" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1737</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>1738</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -50034,14 +50431,22 @@
       <c r="U16" s="6"/>
       <c r="V16" s="8"/>
     </row>
-    <row r="17" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+    <row r="17" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="5" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1741</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>1742</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -50057,14 +50462,20 @@
       <c r="U17" s="6"/>
       <c r="V17" s="8"/>
     </row>
-    <row r="18" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+    <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="5" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1744</v>
+      </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>1745</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -50080,14 +50491,20 @@
       <c r="U18" s="6"/>
       <c r="V18" s="8"/>
     </row>
-    <row r="19" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+    <row r="19" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="5" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>1747</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="49" t="s">
+        <v>1748</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -50103,14 +50520,20 @@
       <c r="U19" s="6"/>
       <c r="V19" s="8"/>
     </row>
-    <row r="20" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+    <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="5" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1750</v>
+      </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>1751</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -50126,14 +50549,20 @@
       <c r="U20" s="6"/>
       <c r="V20" s="8"/>
     </row>
-    <row r="21" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+    <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="5" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>1753</v>
+      </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>1754</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -50149,8 +50578,10 @@
       <c r="U21" s="6"/>
       <c r="V21" s="8"/>
     </row>
-    <row r="22" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="5"/>
+    <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="5" t="s">
+        <v>1755</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -50172,8 +50603,10 @@
       <c r="U22" s="6"/>
       <c r="V22" s="8"/>
     </row>
-    <row r="23" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="5"/>
+    <row r="23" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="5" t="s">
+        <v>1756</v>
+      </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -50195,8 +50628,10 @@
       <c r="U23" s="6"/>
       <c r="V23" s="8"/>
     </row>
-    <row r="24" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="5"/>
+    <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="5" t="s">
+        <v>1757</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -50218,8 +50653,10 @@
       <c r="U24" s="6"/>
       <c r="V24" s="8"/>
     </row>
-    <row r="25" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="5"/>
+    <row r="25" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="5" t="s">
+        <v>1758</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -50241,8 +50678,10 @@
       <c r="U25" s="6"/>
       <c r="V25" s="8"/>
     </row>
-    <row r="26" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="5"/>
+    <row r="26" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="5" t="s">
+        <v>1759</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -50264,8 +50703,10 @@
       <c r="U26" s="6"/>
       <c r="V26" s="8"/>
     </row>
-    <row r="27" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="5"/>
+    <row r="27" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="5" t="s">
+        <v>1760</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -50287,8 +50728,10 @@
       <c r="U27" s="6"/>
       <c r="V27" s="8"/>
     </row>
-    <row r="28" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="5"/>
+    <row r="28" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="5" t="s">
+        <v>1761</v>
+      </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -50310,8 +50753,10 @@
       <c r="U28" s="6"/>
       <c r="V28" s="8"/>
     </row>
-    <row r="29" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="5"/>
+    <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="5" t="s">
+        <v>1762</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -50333,8 +50778,10 @@
       <c r="U29" s="6"/>
       <c r="V29" s="8"/>
     </row>
-    <row r="30" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="5"/>
+    <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="5" t="s">
+        <v>1763</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -50356,8 +50803,10 @@
       <c r="U30" s="6"/>
       <c r="V30" s="8"/>
     </row>
-    <row r="31" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="5"/>
+    <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="5" t="s">
+        <v>1764</v>
+      </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -50379,8 +50828,10 @@
       <c r="U31" s="6"/>
       <c r="V31" s="8"/>
     </row>
-    <row r="32" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="5"/>
+    <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="5" t="s">
+        <v>1765</v>
+      </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -50402,8 +50853,10 @@
       <c r="U32" s="6"/>
       <c r="V32" s="8"/>
     </row>
-    <row r="33" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="5"/>
+    <row r="33" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="5" t="s">
+        <v>1766</v>
+      </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -50425,8 +50878,10 @@
       <c r="U33" s="6"/>
       <c r="V33" s="8"/>
     </row>
-    <row r="34" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="5"/>
+    <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="5" t="s">
+        <v>1767</v>
+      </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -50448,8 +50903,10 @@
       <c r="U34" s="6"/>
       <c r="V34" s="8"/>
     </row>
-    <row r="35" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="5"/>
+    <row r="35" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="5" t="s">
+        <v>1768</v>
+      </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -50471,8 +50928,10 @@
       <c r="U35" s="6"/>
       <c r="V35" s="8"/>
     </row>
-    <row r="36" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="5"/>
+    <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="5" t="s">
+        <v>1769</v>
+      </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -53299,7 +53758,7 @@
       <c r="G5" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="H5" s="47" t="n">
+      <c r="H5" s="50" t="n">
         <v>7</v>
       </c>
       <c r="I5" s="23" t="n">
@@ -53314,7 +53773,7 @@
       <c r="L5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="M5" s="47" t="n">
+      <c r="M5" s="50" t="n">
         <v>5</v>
       </c>
       <c r="N5" s="23" t="n">
@@ -53341,7 +53800,7 @@
       <c r="U5" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="V5" s="48" t="n">
+      <c r="V5" s="51" t="n">
         <v>9</v>
       </c>
     </row>
@@ -53350,45 +53809,45 @@
         <v>259</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1689</v>
+        <v>1770</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1690</v>
+        <v>1771</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1691</v>
+        <v>1772</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1692</v>
+        <v>1773</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
         <v>1624</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>1693</v>
+        <v>1774</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>1694</v>
+        <v>1775</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>1695</v>
+        <v>1776</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>1696</v>
+        <v>1777</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6" t="s">
-        <v>1697</v>
+        <v>1778</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>1698</v>
+        <v>1779</v>
       </c>
       <c r="V6" s="8"/>
     </row>
@@ -53400,18 +53859,18 @@
         <v>323</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1699</v>
+        <v>1780</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1700</v>
+        <v>1781</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
-        <v>1701</v>
+        <v>1782</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>1702</v>
+        <v>1783</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>365</v>
@@ -53420,7 +53879,7 @@
         <v>344</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>1703</v>
+        <v>1784</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="5"/>
@@ -53431,39 +53890,39 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>1704</v>
+        <v>1785</v>
       </c>
       <c r="V7" s="8"/>
     </row>
     <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>1705</v>
+        <v>1786</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1706</v>
+        <v>1787</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1707</v>
+        <v>1788</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1708</v>
+        <v>1789</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>1709</v>
+        <v>1790</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1710</v>
+        <v>1791</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>343</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>1711</v>
+        <v>1792</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>1712</v>
+        <v>1793</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="5"/>
@@ -53474,33 +53933,33 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6" t="s">
-        <v>1713</v>
+        <v>1794</v>
       </c>
       <c r="V8" s="8"/>
     </row>
     <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>1714</v>
+        <v>1795</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1715</v>
+        <v>1796</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1716</v>
+        <v>1797</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1717</v>
+        <v>1798</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>1718</v>
+        <v>1799</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>1719</v>
+        <v>1800</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>1720</v>
+        <v>1801</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
@@ -53521,29 +53980,29 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>1721</v>
+        <v>1802</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1722</v>
+        <v>1803</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1723</v>
+        <v>1804</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
-        <v>1724</v>
+        <v>1805</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1725</v>
+        <v>1806</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>1726</v>
+        <v>1807</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>1727</v>
+        <v>1808</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="5"/>
@@ -53560,22 +54019,22 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>1728</v>
+        <v>1809</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1729</v>
+        <v>1810</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1730</v>
+        <v>1811</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>1731</v>
+        <v>1812</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1732</v>
+        <v>1813</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>88</v>
@@ -53593,35 +54052,35 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6" t="s">
-        <v>1733</v>
+        <v>1814</v>
       </c>
       <c r="V11" s="8"/>
     </row>
     <row r="12" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>1734</v>
+        <v>1815</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1735</v>
+        <v>1816</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1736</v>
+        <v>1817</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
-        <v>1737</v>
+        <v>1818</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1738</v>
+        <v>1819</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>1739</v>
+        <v>1820</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6" t="s">
-        <v>1740</v>
+        <v>1821</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="5"/>
@@ -53632,31 +54091,31 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6" t="s">
-        <v>1741</v>
+        <v>1822</v>
       </c>
       <c r="V12" s="8"/>
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>1742</v>
+        <v>1823</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1743</v>
+        <v>1824</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1744</v>
+        <v>1825</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>1745</v>
+        <v>1826</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1746</v>
+        <v>1827</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>1747</v>
+        <v>1828</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -53669,31 +54128,31 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6" t="s">
-        <v>1748</v>
+        <v>1829</v>
       </c>
       <c r="V13" s="8"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>1749</v>
+        <v>1830</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1750</v>
+        <v>1831</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1751</v>
+        <v>1832</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>1752</v>
+        <v>1833</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1753</v>
+        <v>1834</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>1754</v>
+        <v>1835</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -53710,22 +54169,22 @@
     </row>
     <row r="15" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
-        <v>1755</v>
+        <v>1836</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1756</v>
+        <v>1837</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1757</v>
+        <v>1838</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>1758</v>
+        <v>1839</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1759</v>
+        <v>1840</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -53743,22 +54202,22 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>1760</v>
+        <v>1841</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1761</v>
+        <v>1842</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1762</v>
+        <v>1843</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>1763</v>
+        <v>1844</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1764</v>
+        <v>1845</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -53776,22 +54235,22 @@
     </row>
     <row r="17" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
-        <v>1765</v>
+        <v>1846</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>1408</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1766</v>
+        <v>1847</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
-        <v>1767</v>
+        <v>1848</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1768</v>
+        <v>1849</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -53809,20 +54268,20 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
-        <v>1769</v>
+        <v>1850</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1770</v>
+        <v>1851</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="7" t="s">
-        <v>1771</v>
+        <v>1852</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1772</v>
+        <v>1853</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -53840,20 +54299,20 @@
     </row>
     <row r="19" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="s">
-        <v>1773</v>
+        <v>1854</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1774</v>
+        <v>1855</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
-        <v>1775</v>
+        <v>1856</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1776</v>
+        <v>1857</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -53871,20 +54330,20 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
-        <v>1777</v>
+        <v>1858</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1778</v>
+        <v>1859</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="7" t="s">
-        <v>1779</v>
+        <v>1860</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1780</v>
+        <v>1861</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -53902,20 +54361,20 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
-        <v>1781</v>
+        <v>1862</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1782</v>
+        <v>1863</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="7" t="s">
-        <v>1783</v>
+        <v>1864</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1784</v>
+        <v>1865</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -53933,7 +54392,7 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
-        <v>1785</v>
+        <v>1866</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -53941,7 +54400,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="7" t="s">
-        <v>1786</v>
+        <v>1867</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="6"/>
@@ -53960,7 +54419,7 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
-        <v>1787</v>
+        <v>1868</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -53968,7 +54427,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="7" t="s">
-        <v>1788</v>
+        <v>1869</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="6"/>
@@ -53987,7 +54446,7 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
-        <v>1789</v>
+        <v>1870</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -53995,7 +54454,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>1790</v>
+        <v>1871</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="6"/>
@@ -54014,7 +54473,7 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
-        <v>1791</v>
+        <v>1872</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -54022,7 +54481,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>1792</v>
+        <v>1873</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
@@ -54041,7 +54500,7 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
-        <v>1793</v>
+        <v>1874</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -54049,7 +54508,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>1794</v>
+        <v>1875</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="6"/>
@@ -54076,7 +54535,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="s">
-        <v>1795</v>
+        <v>1876</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
@@ -54095,7 +54554,7 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>1796</v>
+        <v>1877</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -54103,7 +54562,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="s">
-        <v>1797</v>
+        <v>1878</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="6"/>
@@ -54122,7 +54581,7 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="s">
-        <v>1798</v>
+        <v>1879</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -54130,7 +54589,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7" t="s">
-        <v>1799</v>
+        <v>1880</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="6"/>
@@ -54149,7 +54608,7 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>1800</v>
+        <v>1881</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -54157,7 +54616,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7" t="s">
-        <v>1801</v>
+        <v>1882</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="6"/>
@@ -54176,7 +54635,7 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="s">
-        <v>1802</v>
+        <v>1883</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -54184,7 +54643,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7" t="s">
-        <v>1803</v>
+        <v>1884</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="6"/>
@@ -54203,7 +54662,7 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="s">
-        <v>1804</v>
+        <v>1885</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -54211,7 +54670,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7" t="s">
-        <v>1805</v>
+        <v>1886</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="6"/>
@@ -54230,7 +54689,7 @@
     </row>
     <row r="33" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5" t="s">
-        <v>1806</v>
+        <v>1887</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -54238,7 +54697,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="7" t="s">
-        <v>1807</v>
+        <v>1888</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
@@ -54257,7 +54716,7 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
-        <v>1808</v>
+        <v>1889</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -54265,7 +54724,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7" t="s">
-        <v>1809</v>
+        <v>1890</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="6"/>
@@ -54284,7 +54743,7 @@
     </row>
     <row r="35" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="5" t="s">
-        <v>1810</v>
+        <v>1891</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -54292,7 +54751,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="7" t="s">
-        <v>1811</v>
+        <v>1892</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="6"/>
@@ -54311,7 +54770,7 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="s">
-        <v>1812</v>
+        <v>1893</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -54319,7 +54778,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="7" t="s">
-        <v>1813</v>
+        <v>1894</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="6"/>
@@ -54338,7 +54797,7 @@
     </row>
     <row r="37" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5" t="s">
-        <v>1814</v>
+        <v>1895</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -54346,7 +54805,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="7" t="s">
-        <v>1815</v>
+        <v>1896</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
@@ -54365,7 +54824,7 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5" t="s">
-        <v>1816</v>
+        <v>1897</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -54373,7 +54832,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="7" t="s">
-        <v>1817</v>
+        <v>1898</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="6"/>
@@ -54392,7 +54851,7 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="s">
-        <v>1818</v>
+        <v>1899</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -54417,7 +54876,7 @@
     </row>
     <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5" t="s">
-        <v>1819</v>
+        <v>1900</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -54442,7 +54901,7 @@
     </row>
     <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="s">
-        <v>1820</v>
+        <v>1901</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -54467,7 +54926,7 @@
     </row>
     <row r="42" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5" t="s">
-        <v>1821</v>
+        <v>1902</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -54492,7 +54951,7 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="s">
-        <v>1822</v>
+        <v>1903</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -54517,7 +54976,7 @@
     </row>
     <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="s">
-        <v>1823</v>
+        <v>1904</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -54542,7 +55001,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="s">
-        <v>1824</v>
+        <v>1905</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -54567,7 +55026,7 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
-        <v>1825</v>
+        <v>1906</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -54592,7 +55051,7 @@
     </row>
     <row r="47" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="s">
-        <v>1826</v>
+        <v>1907</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -54617,7 +55076,7 @@
     </row>
     <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5" t="s">
-        <v>1827</v>
+        <v>1908</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -54717,7 +55176,7 @@
     </row>
     <row r="52" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5" t="s">
-        <v>1828</v>
+        <v>1909</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -54742,7 +55201,7 @@
     </row>
     <row r="53" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="5" t="s">
-        <v>1829</v>
+        <v>1910</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -54767,7 +55226,7 @@
     </row>
     <row r="54" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="5" t="s">
-        <v>1830</v>
+        <v>1911</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -54817,7 +55276,7 @@
     </row>
     <row r="56" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="s">
-        <v>1831</v>
+        <v>1912</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -54842,7 +55301,7 @@
     </row>
     <row r="57" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="5" t="s">
-        <v>1832</v>
+        <v>1913</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -54867,7 +55326,7 @@
     </row>
     <row r="58" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="5" t="s">
-        <v>1833</v>
+        <v>1914</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -54892,7 +55351,7 @@
     </row>
     <row r="59" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="5" t="s">
-        <v>1834</v>
+        <v>1915</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -54917,7 +55376,7 @@
     </row>
     <row r="60" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="5" t="s">
-        <v>1835</v>
+        <v>1916</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -54942,7 +55401,7 @@
     </row>
     <row r="61" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="5" t="s">
-        <v>1836</v>
+        <v>1917</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -54967,7 +55426,7 @@
     </row>
     <row r="62" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="5" t="s">
-        <v>1837</v>
+        <v>1918</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -54992,7 +55451,7 @@
     </row>
     <row r="63" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="5" t="s">
-        <v>1838</v>
+        <v>1919</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -55092,7 +55551,7 @@
     </row>
     <row r="67" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="5" t="s">
-        <v>1839</v>
+        <v>1920</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -55117,7 +55576,7 @@
     </row>
     <row r="68" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="5" t="s">
-        <v>1840</v>
+        <v>1921</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -55142,7 +55601,7 @@
     </row>
     <row r="69" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="5" t="s">
-        <v>1841</v>
+        <v>1922</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -55167,7 +55626,7 @@
     </row>
     <row r="70" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="5" t="s">
-        <v>1842</v>
+        <v>1923</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -55192,7 +55651,7 @@
     </row>
     <row r="71" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="5" t="s">
-        <v>1843</v>
+        <v>1924</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -55217,7 +55676,7 @@
     </row>
     <row r="72" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="5" t="s">
-        <v>1844</v>
+        <v>1925</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -55242,7 +55701,7 @@
     </row>
     <row r="73" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="5" t="s">
-        <v>1845</v>
+        <v>1926</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -55267,7 +55726,7 @@
     </row>
     <row r="74" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="5" t="s">
-        <v>1797</v>
+        <v>1878</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -55292,7 +55751,7 @@
     </row>
     <row r="75" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="5" t="s">
-        <v>1846</v>
+        <v>1927</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -55317,7 +55776,7 @@
     </row>
     <row r="76" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="5" t="s">
-        <v>1847</v>
+        <v>1928</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -55342,7 +55801,7 @@
     </row>
     <row r="77" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="5" t="s">
-        <v>1848</v>
+        <v>1929</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -55367,7 +55826,7 @@
     </row>
     <row r="78" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="5" t="s">
-        <v>1849</v>
+        <v>1930</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -55392,7 +55851,7 @@
     </row>
     <row r="79" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="5" t="s">
-        <v>1850</v>
+        <v>1931</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -55417,7 +55876,7 @@
     </row>
     <row r="80" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="5" t="s">
-        <v>1851</v>
+        <v>1932</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -55442,7 +55901,7 @@
     </row>
     <row r="81" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="5" t="s">
-        <v>1852</v>
+        <v>1933</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -55467,7 +55926,7 @@
     </row>
     <row r="82" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="5" t="s">
-        <v>1853</v>
+        <v>1934</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -55492,7 +55951,7 @@
     </row>
     <row r="83" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="5" t="s">
-        <v>1854</v>
+        <v>1935</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -55517,7 +55976,7 @@
     </row>
     <row r="84" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="5" t="s">
-        <v>1855</v>
+        <v>1936</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -55567,7 +56026,7 @@
     </row>
     <row r="86" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="5" t="s">
-        <v>1856</v>
+        <v>1937</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -55592,7 +56051,7 @@
     </row>
     <row r="87" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="5" t="s">
-        <v>1857</v>
+        <v>1938</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -55617,7 +56076,7 @@
     </row>
     <row r="88" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="5" t="s">
-        <v>1858</v>
+        <v>1939</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -55642,7 +56101,7 @@
     </row>
     <row r="89" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="5" t="s">
-        <v>1859</v>
+        <v>1940</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -55667,7 +56126,7 @@
     </row>
     <row r="90" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="5" t="s">
-        <v>1860</v>
+        <v>1941</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -55692,7 +56151,7 @@
     </row>
     <row r="91" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="5" t="s">
-        <v>1861</v>
+        <v>1942</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -55717,7 +56176,7 @@
     </row>
     <row r="92" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="5" t="s">
-        <v>1862</v>
+        <v>1943</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -55742,7 +56201,7 @@
     </row>
     <row r="93" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="5" t="s">
-        <v>1863</v>
+        <v>1944</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -55767,7 +56226,7 @@
     </row>
     <row r="94" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="5" t="s">
-        <v>1864</v>
+        <v>1945</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -55792,7 +56251,7 @@
     </row>
     <row r="95" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="5" t="s">
-        <v>1865</v>
+        <v>1946</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -55817,7 +56276,7 @@
     </row>
     <row r="96" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="5" t="s">
-        <v>1866</v>
+        <v>1947</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -55867,7 +56326,7 @@
     </row>
     <row r="98" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="5" t="s">
-        <v>1867</v>
+        <v>1948</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -55892,7 +56351,7 @@
     </row>
     <row r="99" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="5" t="s">
-        <v>1868</v>
+        <v>1949</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -55917,7 +56376,7 @@
     </row>
     <row r="100" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="5" t="s">
-        <v>1869</v>
+        <v>1950</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -55942,7 +56401,7 @@
     </row>
     <row r="101" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="5" t="s">
-        <v>1870</v>
+        <v>1951</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -55967,7 +56426,7 @@
     </row>
     <row r="102" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="5" t="s">
-        <v>1871</v>
+        <v>1952</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -56017,7 +56476,7 @@
     </row>
     <row r="104" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="5" t="s">
-        <v>1872</v>
+        <v>1953</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -56042,7 +56501,7 @@
     </row>
     <row r="105" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="5" t="s">
-        <v>1873</v>
+        <v>1954</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -56067,7 +56526,7 @@
     </row>
     <row r="106" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="5" t="s">
-        <v>1874</v>
+        <v>1955</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -56092,7 +56551,7 @@
     </row>
     <row r="107" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="5" t="s">
-        <v>1875</v>
+        <v>1956</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -56117,7 +56576,7 @@
     </row>
     <row r="108" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="5" t="s">
-        <v>1876</v>
+        <v>1957</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -56142,7 +56601,7 @@
     </row>
     <row r="109" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="5" t="s">
-        <v>1877</v>
+        <v>1958</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -56167,7 +56626,7 @@
     </row>
     <row r="110" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="5" t="s">
-        <v>1878</v>
+        <v>1959</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -56192,7 +56651,7 @@
     </row>
     <row r="111" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="5" t="s">
-        <v>1879</v>
+        <v>1960</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -56217,7 +56676,7 @@
     </row>
     <row r="112" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="5" t="s">
-        <v>1880</v>
+        <v>1961</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -56242,7 +56701,7 @@
     </row>
     <row r="113" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="5" t="s">
-        <v>1881</v>
+        <v>1962</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -56267,7 +56726,7 @@
     </row>
     <row r="114" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="5" t="s">
-        <v>1882</v>
+        <v>1963</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -56292,7 +56751,7 @@
     </row>
     <row r="115" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="5" t="s">
-        <v>1883</v>
+        <v>1964</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -56317,7 +56776,7 @@
     </row>
     <row r="116" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="5" t="s">
-        <v>1884</v>
+        <v>1965</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -56342,7 +56801,7 @@
     </row>
     <row r="117" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="5" t="s">
-        <v>1885</v>
+        <v>1966</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -56392,7 +56851,7 @@
     </row>
     <row r="119" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="5" t="s">
-        <v>1886</v>
+        <v>1967</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -56417,7 +56876,7 @@
     </row>
     <row r="120" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="5" t="s">
-        <v>1887</v>
+        <v>1968</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -56442,7 +56901,7 @@
     </row>
     <row r="121" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="5" t="s">
-        <v>1888</v>
+        <v>1969</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -56467,7 +56926,7 @@
     </row>
     <row r="122" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="5" t="s">
-        <v>1889</v>
+        <v>1970</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -56492,7 +56951,7 @@
     </row>
     <row r="123" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="5" t="s">
-        <v>1890</v>
+        <v>1971</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -56517,7 +56976,7 @@
     </row>
     <row r="124" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="5" t="s">
-        <v>1891</v>
+        <v>1972</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -56542,7 +57001,7 @@
     </row>
     <row r="125" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="5" t="s">
-        <v>1892</v>
+        <v>1973</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -56567,7 +57026,7 @@
     </row>
     <row r="126" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="5" t="s">
-        <v>1893</v>
+        <v>1974</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -56592,7 +57051,7 @@
     </row>
     <row r="127" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="5" t="s">
-        <v>1894</v>
+        <v>1975</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -56617,7 +57076,7 @@
     </row>
     <row r="128" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="5" t="s">
-        <v>1895</v>
+        <v>1976</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -56642,7 +57101,7 @@
     </row>
     <row r="129" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="5" t="s">
-        <v>1896</v>
+        <v>1977</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -56667,7 +57126,7 @@
     </row>
     <row r="130" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="5" t="s">
-        <v>1897</v>
+        <v>1978</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -56692,7 +57151,7 @@
     </row>
     <row r="131" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="5" t="s">
-        <v>1898</v>
+        <v>1979</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -56717,7 +57176,7 @@
     </row>
     <row r="132" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="5" t="s">
-        <v>1899</v>
+        <v>1980</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -56742,7 +57201,7 @@
     </row>
     <row r="133" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="5" t="s">
-        <v>1900</v>
+        <v>1981</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -56767,7 +57226,7 @@
     </row>
     <row r="134" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="5" t="s">
-        <v>1901</v>
+        <v>1982</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -56792,7 +57251,7 @@
     </row>
     <row r="135" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="5" t="s">
-        <v>1902</v>
+        <v>1983</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -56817,7 +57276,7 @@
     </row>
     <row r="136" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="5" t="s">
-        <v>1903</v>
+        <v>1984</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -56842,7 +57301,7 @@
     </row>
     <row r="137" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="5" t="s">
-        <v>1904</v>
+        <v>1985</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -56867,7 +57326,7 @@
     </row>
     <row r="138" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="5" t="s">
-        <v>1905</v>
+        <v>1986</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -56892,7 +57351,7 @@
     </row>
     <row r="139" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="5" t="s">
-        <v>1906</v>
+        <v>1987</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -56917,7 +57376,7 @@
     </row>
     <row r="140" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="5" t="s">
-        <v>1907</v>
+        <v>1988</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -56942,7 +57401,7 @@
     </row>
     <row r="141" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="5" t="s">
-        <v>1797</v>
+        <v>1878</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -56967,7 +57426,7 @@
     </row>
     <row r="142" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="5" t="s">
-        <v>1908</v>
+        <v>1989</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -56992,7 +57451,7 @@
     </row>
     <row r="143" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="5" t="s">
-        <v>1842</v>
+        <v>1923</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -57017,7 +57476,7 @@
     </row>
     <row r="144" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="5" t="s">
-        <v>1909</v>
+        <v>1990</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -57042,7 +57501,7 @@
     </row>
     <row r="145" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="5" t="s">
-        <v>1910</v>
+        <v>1991</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -57067,7 +57526,7 @@
     </row>
     <row r="146" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="5" t="s">
-        <v>1911</v>
+        <v>1992</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -57117,7 +57576,7 @@
     </row>
     <row r="148" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="5" t="s">
-        <v>1912</v>
+        <v>1993</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -57142,7 +57601,7 @@
     </row>
     <row r="149" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="5" t="s">
-        <v>1913</v>
+        <v>1994</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -57167,7 +57626,7 @@
     </row>
     <row r="150" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="5" t="s">
-        <v>1914</v>
+        <v>1995</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -57192,7 +57651,7 @@
     </row>
     <row r="151" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="5" t="s">
-        <v>1915</v>
+        <v>1996</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -57217,7 +57676,7 @@
     </row>
     <row r="152" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="5" t="s">
-        <v>1916</v>
+        <v>1997</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -57242,7 +57701,7 @@
     </row>
     <row r="153" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="5" t="s">
-        <v>1917</v>
+        <v>1998</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -57267,7 +57726,7 @@
     </row>
     <row r="154" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="5" t="s">
-        <v>1820</v>
+        <v>1901</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -57292,7 +57751,7 @@
     </row>
     <row r="155" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="5" t="s">
-        <v>1918</v>
+        <v>1999</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -57317,7 +57776,7 @@
     </row>
     <row r="156" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="5" t="s">
-        <v>1919</v>
+        <v>2000</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -57367,7 +57826,7 @@
     </row>
     <row r="158" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="5" t="s">
-        <v>1920</v>
+        <v>2001</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -57392,7 +57851,7 @@
     </row>
     <row r="159" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="5" t="s">
-        <v>1921</v>
+        <v>2002</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -57442,7 +57901,7 @@
     </row>
     <row r="161" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="5" t="s">
-        <v>1789</v>
+        <v>1870</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -57467,7 +57926,7 @@
     </row>
     <row r="162" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="5" t="s">
-        <v>1922</v>
+        <v>2003</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -57492,7 +57951,7 @@
     </row>
     <row r="163" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="5" t="s">
-        <v>1923</v>
+        <v>2004</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -57517,7 +57976,7 @@
     </row>
     <row r="164" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="5" t="s">
-        <v>1924</v>
+        <v>2005</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -57542,7 +58001,7 @@
     </row>
     <row r="165" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="5" t="s">
-        <v>1925</v>
+        <v>2006</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -57567,7 +58026,7 @@
     </row>
     <row r="166" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="5" t="s">
-        <v>1926</v>
+        <v>2007</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -57592,7 +58051,7 @@
     </row>
     <row r="167" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="5" t="s">
-        <v>1927</v>
+        <v>2008</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -57617,7 +58076,7 @@
     </row>
     <row r="168" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="5" t="s">
-        <v>1928</v>
+        <v>2009</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -57642,7 +58101,7 @@
     </row>
     <row r="169" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="5" t="s">
-        <v>1929</v>
+        <v>2010</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -57667,7 +58126,7 @@
     </row>
     <row r="170" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="28" t="s">
-        <v>1930</v>
+        <v>2011</v>
       </c>
       <c r="C170" s="26"/>
       <c r="D170" s="26"/>
@@ -57901,7 +58360,7 @@
     </row>
     <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>1931</v>
+        <v>2012</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -57910,7 +58369,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="8"/>
       <c r="I6" s="5" t="s">
-        <v>1932</v>
+        <v>2013</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
@@ -57930,7 +58389,7 @@
     </row>
     <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
-        <v>1933</v>
+        <v>2014</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -57939,7 +58398,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="8"/>
       <c r="I7" s="5" t="s">
-        <v>1934</v>
+        <v>2015</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
@@ -58007,7 +58466,7 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>1935</v>
+        <v>2016</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -58032,7 +58491,7 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>1936</v>
+        <v>2017</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -58057,7 +58516,7 @@
     </row>
     <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>1937</v>
+        <v>2018</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -58082,7 +58541,7 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>1938</v>
+        <v>2019</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -61490,55 +61949,55 @@
         <v>1129</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1939</v>
+        <v>2020</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1940</v>
+        <v>2021</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>1941</v>
+        <v>2022</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="8" t="s">
-        <v>1942</v>
+        <v>2023</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>1943</v>
+        <v>2024</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>1944</v>
+        <v>2025</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>1945</v>
+        <v>2026</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="13"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6" t="s">
-        <v>1946</v>
+        <v>2027</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>1947</v>
+        <v>2028</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>1948</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
-        <v>1949</v>
+        <v>2030</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1950</v>
+        <v>2031</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1951</v>
+        <v>2032</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -61547,10 +62006,10 @@
         <v>992</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>1952</v>
+        <v>2033</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>1953</v>
+        <v>2034</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>30</v>
@@ -61565,7 +62024,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>1954</v>
+        <v>2035</v>
       </c>
       <c r="V7" s="8"/>
     </row>
@@ -61574,22 +62033,22 @@
         <v>1467</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1955</v>
+        <v>2036</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1956</v>
+        <v>2037</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="8" t="s">
-        <v>1957</v>
+        <v>2038</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1958</v>
+        <v>2039</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>1959</v>
+        <v>2040</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>486</v>
@@ -61604,32 +62063,32 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6" t="s">
-        <v>1960</v>
+        <v>2041</v>
       </c>
       <c r="V8" s="8"/>
     </row>
     <row r="9" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>1961</v>
+        <v>2042</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1962</v>
+        <v>2043</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="8" t="s">
-        <v>1963</v>
+        <v>2044</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>1964</v>
+        <v>2045</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>1965</v>
+        <v>2046</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>1966</v>
+        <v>2047</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="18"/>
@@ -61641,7 +62100,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6" t="s">
-        <v>1967</v>
+        <v>2048</v>
       </c>
       <c r="V9" s="8"/>
     </row>
@@ -61650,20 +62109,20 @@
         <v>1101</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1968</v>
+        <v>2049</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="8" t="s">
-        <v>1969</v>
+        <v>2050</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1970</v>
+        <v>2051</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>1971</v>
+        <v>2052</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -61676,16 +62135,16 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6" t="s">
-        <v>1972</v>
+        <v>2053</v>
       </c>
       <c r="V10" s="8"/>
     </row>
     <row r="11" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>1824</v>
+        <v>1905</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1973</v>
+        <v>2054</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -61693,10 +62152,10 @@
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
       <c r="I11" s="5" t="s">
-        <v>1974</v>
+        <v>2055</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>1975</v>
+        <v>2056</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -61709,16 +62168,16 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6" t="s">
-        <v>1976</v>
+        <v>2057</v>
       </c>
       <c r="V11" s="8"/>
     </row>
     <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>1977</v>
+        <v>2058</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1978</v>
+        <v>2059</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -61726,10 +62185,10 @@
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
       <c r="I12" s="5" t="s">
-        <v>1979</v>
+        <v>2060</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>1980</v>
+        <v>2061</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -61742,16 +62201,16 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6" t="s">
-        <v>1981</v>
+        <v>2062</v>
       </c>
       <c r="V12" s="8"/>
     </row>
     <row r="13" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>1982</v>
+        <v>2063</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1983</v>
+        <v>2064</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -61759,10 +62218,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="8"/>
       <c r="I13" s="5" t="s">
-        <v>1984</v>
+        <v>2065</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>1985</v>
+        <v>2066</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -61775,16 +62234,16 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6" t="s">
-        <v>1986</v>
+        <v>2067</v>
       </c>
       <c r="V13" s="8"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>1987</v>
+        <v>2068</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1988</v>
+        <v>2069</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -61792,10 +62251,10 @@
       <c r="G14" s="6"/>
       <c r="H14" s="8"/>
       <c r="I14" s="5" t="s">
-        <v>1989</v>
+        <v>2070</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>1990</v>
+        <v>2071</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -61808,16 +62267,16 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6" t="s">
-        <v>1991</v>
+        <v>2072</v>
       </c>
       <c r="V14" s="8"/>
     </row>
     <row r="15" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
-        <v>1992</v>
+        <v>2073</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1988</v>
+        <v>2069</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -61825,7 +62284,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="8"/>
       <c r="I15" s="5" t="s">
-        <v>1993</v>
+        <v>2074</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -61839,16 +62298,16 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6" t="s">
-        <v>1994</v>
+        <v>2075</v>
       </c>
       <c r="V15" s="8"/>
     </row>
     <row r="16" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>1995</v>
+        <v>2076</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1996</v>
+        <v>2077</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -61856,7 +62315,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="8"/>
       <c r="I16" s="5" t="s">
-        <v>1997</v>
+        <v>2078</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -61870,13 +62329,13 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6" t="s">
-        <v>1998</v>
+        <v>2079</v>
       </c>
       <c r="V16" s="8"/>
     </row>
     <row r="17" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
-        <v>1999</v>
+        <v>2080</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>1644</v>
@@ -61887,7 +62346,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="8"/>
       <c r="I17" s="5" t="s">
-        <v>2000</v>
+        <v>2081</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -61905,10 +62364,10 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
-        <v>2001</v>
+        <v>2082</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>2002</v>
+        <v>2083</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -61916,7 +62375,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="8"/>
       <c r="I18" s="5" t="s">
-        <v>2003</v>
+        <v>2084</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -61934,10 +62393,10 @@
     </row>
     <row r="19" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="s">
-        <v>2004</v>
+        <v>2085</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>2005</v>
+        <v>2086</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -61945,7 +62404,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="8"/>
       <c r="I19" s="5" t="s">
-        <v>2006</v>
+        <v>2087</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -61963,7 +62422,7 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
-        <v>1791</v>
+        <v>1872</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -61988,7 +62447,7 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
-        <v>2007</v>
+        <v>2088</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -62013,7 +62472,7 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
-        <v>2008</v>
+        <v>2089</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -62038,7 +62497,7 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
-        <v>2009</v>
+        <v>2090</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -62063,7 +62522,7 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
-        <v>2010</v>
+        <v>2091</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -62088,7 +62547,7 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
-        <v>2011</v>
+        <v>2092</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -62113,7 +62572,7 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
-        <v>2012</v>
+        <v>2093</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -62138,7 +62597,7 @@
     </row>
     <row r="27" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
-        <v>2013</v>
+        <v>2094</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -62163,7 +62622,7 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>2014</v>
+        <v>2095</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -62188,7 +62647,7 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="s">
-        <v>2015</v>
+        <v>2096</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -62213,7 +62672,7 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>2016</v>
+        <v>2097</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -62238,7 +62697,7 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="s">
-        <v>2017</v>
+        <v>2098</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -62263,7 +62722,7 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="s">
-        <v>2018</v>
+        <v>2099</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -62288,7 +62747,7 @@
     </row>
     <row r="33" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5" t="s">
-        <v>2019</v>
+        <v>2100</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -62313,7 +62772,7 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
-        <v>2020</v>
+        <v>2101</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -62363,7 +62822,7 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="s">
-        <v>2021</v>
+        <v>2102</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -62388,7 +62847,7 @@
     </row>
     <row r="37" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5" t="s">
-        <v>2022</v>
+        <v>2103</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -62413,7 +62872,7 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5" t="s">
-        <v>2023</v>
+        <v>2104</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -62438,7 +62897,7 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="s">
-        <v>2024</v>
+        <v>2105</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -62463,7 +62922,7 @@
     </row>
     <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5" t="s">
-        <v>2025</v>
+        <v>2106</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -62488,7 +62947,7 @@
     </row>
     <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="s">
-        <v>2026</v>
+        <v>2107</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -62513,7 +62972,7 @@
     </row>
     <row r="42" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5" t="s">
-        <v>2027</v>
+        <v>2108</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -62538,7 +62997,7 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="s">
-        <v>2028</v>
+        <v>2109</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -62563,7 +63022,7 @@
     </row>
     <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="s">
-        <v>1796</v>
+        <v>1877</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -62588,7 +63047,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="s">
-        <v>2029</v>
+        <v>2110</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -62613,7 +63072,7 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
-        <v>2030</v>
+        <v>2111</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -62638,7 +63097,7 @@
     </row>
     <row r="47" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="s">
-        <v>2031</v>
+        <v>2112</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -62663,7 +63122,7 @@
     </row>
     <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5" t="s">
-        <v>2032</v>
+        <v>2113</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -62688,7 +63147,7 @@
     </row>
     <row r="49" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="5" t="s">
-        <v>2033</v>
+        <v>2114</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -62713,7 +63172,7 @@
     </row>
     <row r="50" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5" t="s">
-        <v>2034</v>
+        <v>2115</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -62738,7 +63197,7 @@
     </row>
     <row r="51" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="5" t="s">
-        <v>2035</v>
+        <v>2116</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -62763,7 +63222,7 @@
     </row>
     <row r="52" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5" t="s">
-        <v>2036</v>
+        <v>2117</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -62788,7 +63247,7 @@
     </row>
     <row r="53" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="5" t="s">
-        <v>2037</v>
+        <v>2118</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -62813,7 +63272,7 @@
     </row>
     <row r="54" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="5" t="s">
-        <v>2038</v>
+        <v>2119</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -62838,7 +63297,7 @@
     </row>
     <row r="55" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="5" t="s">
-        <v>2039</v>
+        <v>2120</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -62863,7 +63322,7 @@
     </row>
     <row r="56" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="s">
-        <v>2040</v>
+        <v>2121</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -62888,7 +63347,7 @@
     </row>
     <row r="57" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="5" t="s">
-        <v>2041</v>
+        <v>2122</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -62913,7 +63372,7 @@
     </row>
     <row r="58" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="5" t="s">
-        <v>2042</v>
+        <v>2123</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -62938,7 +63397,7 @@
     </row>
     <row r="59" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="5" t="s">
-        <v>2043</v>
+        <v>2124</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -62963,7 +63422,7 @@
     </row>
     <row r="60" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="5" t="s">
-        <v>2044</v>
+        <v>2125</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -62988,7 +63447,7 @@
     </row>
     <row r="61" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="5" t="s">
-        <v>2045</v>
+        <v>2126</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -63013,7 +63472,7 @@
     </row>
     <row r="62" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="5" t="s">
-        <v>2046</v>
+        <v>2127</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -63038,7 +63497,7 @@
     </row>
     <row r="63" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="5" t="s">
-        <v>2047</v>
+        <v>2128</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -63063,7 +63522,7 @@
     </row>
     <row r="64" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="5" t="s">
-        <v>2048</v>
+        <v>2129</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -63088,7 +63547,7 @@
     </row>
     <row r="65" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="5" t="s">
-        <v>2049</v>
+        <v>2130</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -63113,7 +63572,7 @@
     </row>
     <row r="66" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="5" t="s">
-        <v>2050</v>
+        <v>2131</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>

--- a/Work/CHR_annotation/1820 Journey to Sources of Jumna and Bhagirathi.xlsx
+++ b/Work/CHR_annotation/1820 Journey to Sources of Jumna and Bhagirathi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4061" uniqueCount="2330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4194" uniqueCount="2450">
   <si>
     <t xml:space="preserve">Geographical Entities (A)</t>
   </si>
@@ -5112,42 +5112,51 @@
     <t xml:space="preserve">James B. Fraser</t>
   </si>
   <si>
+    <t xml:space="preserve">Govind Bhisht</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maha Deo</t>
   </si>
   <si>
-    <t xml:space="preserve">Fir Wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cotton</t>
+    <t xml:space="preserve">Silver Fir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angreka</t>
   </si>
   <si>
     <t xml:space="preserve">Chamri-Ca-Ghat</t>
   </si>
   <si>
+    <t xml:space="preserve">Chhaya-Ca Canta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loha Cundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhuv Sinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gortha, Gorcha, Gorkha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parduman Sah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cemerband</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirinagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bongi-Ca-Tiba</t>
+  </si>
+  <si>
     <t xml:space="preserve">Candaca Ghat</t>
   </si>
   <si>
-    <t xml:space="preserve">Loha Cundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhuv Sinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorthas, Gorchas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parduman Sah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oaks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sirinagar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bongi-Ca-Tiba</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gangotri</t>
   </si>
   <si>
@@ -5166,12 +5175,18 @@
     <t xml:space="preserve">Gangani-Ca Ghat</t>
   </si>
   <si>
+    <t xml:space="preserve">Amer Sinh Thappa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zamindars</t>
   </si>
   <si>
     <t xml:space="preserve">Dhaman Chand</t>
   </si>
   <si>
+    <t xml:space="preserve">Spruce Fir</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jauntgerh</t>
   </si>
   <si>
@@ -5181,9 +5196,18 @@
     <t xml:space="preserve">Thiran-Ca-Tiba</t>
   </si>
   <si>
+    <t xml:space="preserve">Bhim Sinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mewati</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ahmed Sinh</t>
   </si>
   <si>
+    <t xml:space="preserve">Birchwood</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gothar-Ci-Gadh</t>
   </si>
   <si>
@@ -5193,15 +5217,33 @@
     <t xml:space="preserve">Sari-Gari-Ci-Gadh</t>
   </si>
   <si>
+    <t xml:space="preserve">Arjun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhatias</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daulat Sinh</t>
   </si>
   <si>
+    <t xml:space="preserve">Heath, Heather</t>
+  </si>
+  <si>
     <t xml:space="preserve">Necral-Ci-Gadh</t>
   </si>
   <si>
     <t xml:space="preserve">Cedar-Canta</t>
   </si>
   <si>
+    <t xml:space="preserve">Yudhisthir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man Sinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferns</t>
+  </si>
+  <si>
     <t xml:space="preserve">Badraj</t>
   </si>
   <si>
@@ -5214,6 +5256,18 @@
     <t xml:space="preserve">Shealu</t>
   </si>
   <si>
+    <t xml:space="preserve">Sahadeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muffulman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colonel Kirkpatrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orchides</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dehra Dun</t>
   </si>
   <si>
@@ -5226,6 +5280,15 @@
     <t xml:space="preserve">Gundiat</t>
   </si>
   <si>
+    <t xml:space="preserve">Nacula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panduwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lillies</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jauntgurh</t>
   </si>
   <si>
@@ -5238,6 +5301,12 @@
     <t xml:space="preserve">Perat</t>
   </si>
   <si>
+    <t xml:space="preserve">Kishn Sinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cowslips</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calfi</t>
   </si>
   <si>
@@ -5250,6 +5319,12 @@
     <t xml:space="preserve">Cimola</t>
   </si>
   <si>
+    <t xml:space="preserve">Meffrs Webb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyanthuses</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bander-Chat</t>
   </si>
   <si>
@@ -5262,87 +5337,381 @@
     <t xml:space="preserve">Celar</t>
   </si>
   <si>
+    <t xml:space="preserve">Gugul</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lakha-Mandal</t>
   </si>
   <si>
     <t xml:space="preserve">Benai-Ci-Gadh</t>
   </si>
   <si>
+    <t xml:space="preserve">Damini Matha</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gadu-Gadh</t>
   </si>
   <si>
+    <t xml:space="preserve">Birmah Caunla</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sirmor</t>
   </si>
   <si>
     <t xml:space="preserve">Dhulu Dhar</t>
   </si>
   <si>
+    <t xml:space="preserve">Sumeru Parbat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Barni-Ci-Gadh</t>
   </si>
   <si>
+    <t xml:space="preserve">Gooseberry Bushes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biraltu</t>
   </si>
   <si>
     <t xml:space="preserve">Bediar-Gadh</t>
   </si>
   <si>
+    <t xml:space="preserve">Bacri ci-Dhar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maungral-Gerh</t>
   </si>
   <si>
+    <t xml:space="preserve">Tejpat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Banchauli</t>
   </si>
   <si>
     <t xml:space="preserve">Girri</t>
   </si>
   <si>
+    <t xml:space="preserve">Panda Raffu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Palsa-Gadh</t>
   </si>
   <si>
     <t xml:space="preserve">Sircot</t>
   </si>
   <si>
+    <t xml:space="preserve">Palia-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dudian-Ci-Bamec</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rewaen</t>
   </si>
   <si>
+    <t xml:space="preserve">Afari Gadh, Afari Gerh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhum Dhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gurmi-Ci-Ghat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anhul</t>
   </si>
   <si>
+    <t xml:space="preserve">Changhal-Ci-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhim-ca-Udar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ifhna </t>
   </si>
   <si>
+    <t xml:space="preserve">Dancan-Ci-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rakefur Stam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banfuru-Ca-Ghat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bercot</t>
   </si>
   <si>
+    <t xml:space="preserve">Bhim-Ci-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rudra Himala Bahin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama Thalan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pothi</t>
   </si>
   <si>
+    <t xml:space="preserve">Cailaru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banfuri Ghat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patangni</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sunaldi</t>
   </si>
   <si>
+    <t xml:space="preserve">Damacundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sath-krar-Cothi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gauri Cund, Gauri Cunda</t>
+  </si>
+  <si>
     <t xml:space="preserve">Duckheat</t>
   </si>
   <si>
+    <t xml:space="preserve">Ohnia-Gunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loarnad-Ca Sango</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nagwin</t>
   </si>
   <si>
+    <t xml:space="preserve">Athpaifa Gunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datrani-Ca-Sango</t>
+  </si>
+  <si>
     <t xml:space="preserve">Palu</t>
   </si>
   <si>
+    <t xml:space="preserve">Cedar Ganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jum-Ca-Gerh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shealwa</t>
   </si>
   <si>
+    <t xml:space="preserve">Terbet Cund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrel-Ca-Danda</t>
+  </si>
+  <si>
     <t xml:space="preserve">Curfala</t>
   </si>
   <si>
+    <t xml:space="preserve">Unta Gunga, Unta Ganga</t>
+  </si>
+  <si>
     <t xml:space="preserve">Than</t>
   </si>
   <si>
+    <t xml:space="preserve">Sunapali-Ci-Dhar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Phuldar</t>
   </si>
   <si>
+    <t xml:space="preserve">Dig Dhar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nagwar</t>
   </si>
   <si>
+    <t xml:space="preserve">Curmi-Ci-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cunal-Ci-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorkha Raj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matri-Ci-Tal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terkeu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banfuru-Ci-Dhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cupuera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinpo-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curfali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rindi-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setlej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shear Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bifeher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gumti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hersila Ganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mala-Ci-Tiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jahnevi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miani-Ci-Ghad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranipur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gedar-Gadh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cachaura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elga-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tacnaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jum-Ci-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhunari-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mukabba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinhoti-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhairamghati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagun Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marma-Ci-Dhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaudagang-Ci-Dhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bel-Ci-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reithal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhal Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cufin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinhalo-Ci-Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacolla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathal Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notarna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamli Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agloha Gadh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gufali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhanauli Ci-Dhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandhal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barahat, Barahati, Barethi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhunda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macrora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dangalo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deyra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saharanpore</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ganges, Gunga, Gungagee, Gunga Jee</t>
   </si>
   <si>
@@ -5904,9 +6273,6 @@
     <t xml:space="preserve">Kedar Nath</t>
   </si>
   <si>
-    <t xml:space="preserve">Suchi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Neechnee</t>
   </si>
   <si>
@@ -5955,9 +6321,6 @@
     <t xml:space="preserve">Paloo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reithal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ghosali</t>
   </si>
   <si>
@@ -6925,9 +7288,6 @@
   </si>
   <si>
     <t xml:space="preserve">Barasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setlej</t>
   </si>
   <si>
     <t xml:space="preserve">Leulowari</t>
@@ -7354,7 +7714,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7555,6 +7915,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -14234,10 +14598,10 @@
     </row>
     <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>2030</v>
+        <v>2151</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>2132</v>
+        <v>2253</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -14245,10 +14609,10 @@
       <c r="G6" s="6"/>
       <c r="H6" s="8"/>
       <c r="I6" s="5" t="s">
-        <v>2024</v>
+        <v>2145</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>2133</v>
+        <v>2254</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9" t="s">
@@ -14258,7 +14622,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6" t="s">
-        <v>2134</v>
+        <v>2255</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -14272,7 +14636,7 @@
         <v>259</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>2135</v>
+        <v>2256</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -14280,10 +14644,10 @@
       <c r="G7" s="6"/>
       <c r="H7" s="8"/>
       <c r="I7" s="5" t="s">
-        <v>2136</v>
+        <v>2257</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>2137</v>
+        <v>2258</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>26</v>
@@ -14295,7 +14659,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6" t="s">
-        <v>2138</v>
+        <v>2259</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -14306,10 +14670,10 @@
     </row>
     <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>2139</v>
+        <v>2260</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>2140</v>
+        <v>2261</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -14317,7 +14681,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="8"/>
       <c r="I8" s="5" t="s">
-        <v>2141</v>
+        <v>2262</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15" t="s">
@@ -14339,10 +14703,10 @@
     </row>
     <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>2142</v>
+        <v>2263</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>2143</v>
+        <v>2264</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -14350,7 +14714,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9" t="s">
-        <v>2144</v>
+        <v>2265</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15" t="s">
@@ -14372,7 +14736,7 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>2145</v>
+        <v>2266</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -14397,7 +14761,7 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>2146</v>
+        <v>2267</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -14447,7 +14811,7 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>2147</v>
+        <v>2268</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -14472,7 +14836,7 @@
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>2148</v>
+        <v>2269</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -14522,7 +14886,7 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>2149</v>
+        <v>2270</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -17815,13 +18179,13 @@
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="6" t="s">
-        <v>2150</v>
+        <v>2271</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>2151</v>
+        <v>2272</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>2152</v>
+        <v>2273</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="5"/>
@@ -17839,28 +18203,28 @@
         <v>241</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>2153</v>
+        <v>2274</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2154</v>
+        <v>2275</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>2155</v>
+        <v>2276</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="8" t="s">
-        <v>2156</v>
+        <v>2277</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2157</v>
+        <v>2278</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>2158</v>
+        <v>2279</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="15" t="s">
-        <v>2159</v>
+        <v>2280</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="5"/>
@@ -17871,10 +18235,10 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>2160</v>
+        <v>2281</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>2161</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17882,24 +18246,24 @@
         <v>231</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>2162</v>
+        <v>2283</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>2163</v>
+        <v>2284</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>2164</v>
+        <v>2285</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="8" t="s">
-        <v>2165</v>
+        <v>2286</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>2166</v>
+        <v>2287</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>2167</v>
+        <v>2288</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>26</v>
@@ -17918,39 +18282,39 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>2168</v>
+        <v>2289</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>2169</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>2170</v>
+        <v>2291</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>2171</v>
+        <v>2292</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2172</v>
+        <v>2293</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="8" t="s">
-        <v>2173</v>
+        <v>2294</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>2174</v>
+        <v>2295</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>2175</v>
+        <v>2296</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>2176</v>
+        <v>2297</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>26</v>
@@ -17966,28 +18330,28 @@
         <v>358</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>2177</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>2178</v>
+        <v>2299</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>2179</v>
+        <v>2300</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="8" t="s">
-        <v>2180</v>
+        <v>2301</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>2181</v>
+        <v>2302</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>26</v>
@@ -18008,10 +18372,10 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>2182</v>
+        <v>2303</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>2183</v>
+        <v>2304</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -18022,7 +18386,7 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="6" t="s">
-        <v>2184</v>
+        <v>2305</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -18049,7 +18413,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="8" t="s">
-        <v>2185</v>
+        <v>2306</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
@@ -18068,7 +18432,7 @@
     </row>
     <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>1872</v>
+        <v>1995</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -18076,7 +18440,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="8" t="s">
-        <v>2186</v>
+        <v>2307</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
@@ -18095,7 +18459,7 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>2187</v>
+        <v>2308</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -18103,7 +18467,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="8" t="s">
-        <v>2188</v>
+        <v>2309</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
@@ -18122,7 +18486,7 @@
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>2189</v>
+        <v>2310</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -18130,7 +18494,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="8" t="s">
-        <v>2190</v>
+        <v>2311</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
@@ -18149,7 +18513,7 @@
     </row>
     <row r="15" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
-        <v>2191</v>
+        <v>2312</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -18174,7 +18538,7 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>2192</v>
+        <v>2313</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -18199,7 +18563,7 @@
     </row>
     <row r="17" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
-        <v>2193</v>
+        <v>2314</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -18224,7 +18588,7 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
-        <v>2194</v>
+        <v>2315</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -18249,7 +18613,7 @@
     </row>
     <row r="19" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="s">
-        <v>2195</v>
+        <v>2316</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -18274,7 +18638,7 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
-        <v>2196</v>
+        <v>2317</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -18299,7 +18663,7 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
-        <v>2197</v>
+        <v>2318</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -18324,7 +18688,7 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
-        <v>2198</v>
+        <v>2319</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -18349,7 +18713,7 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
-        <v>2199</v>
+        <v>2320</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -18374,7 +18738,7 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
-        <v>2200</v>
+        <v>2321</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -18399,7 +18763,7 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
-        <v>2201</v>
+        <v>2322</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -18424,7 +18788,7 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
-        <v>2202</v>
+        <v>2323</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -18449,7 +18813,7 @@
     </row>
     <row r="27" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
-        <v>2203</v>
+        <v>2324</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -18474,7 +18838,7 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>2204</v>
+        <v>2325</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -18499,7 +18863,7 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="s">
-        <v>2205</v>
+        <v>2326</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -18524,7 +18888,7 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>2206</v>
+        <v>2327</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -18549,7 +18913,7 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="s">
-        <v>2207</v>
+        <v>2328</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -18574,7 +18938,7 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="s">
-        <v>2208</v>
+        <v>2329</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -18624,7 +18988,7 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
-        <v>2209</v>
+        <v>2330</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -18674,7 +19038,7 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="s">
-        <v>2210</v>
+        <v>2331</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -18699,7 +19063,7 @@
     </row>
     <row r="37" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5" t="s">
-        <v>2211</v>
+        <v>2332</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -18724,7 +19088,7 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5" t="s">
-        <v>2212</v>
+        <v>2333</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -18749,7 +19113,7 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="s">
-        <v>2213</v>
+        <v>2334</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -18774,7 +19138,7 @@
     </row>
     <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5" t="s">
-        <v>2214</v>
+        <v>2335</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -18799,7 +19163,7 @@
     </row>
     <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="s">
-        <v>2215</v>
+        <v>2336</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -18824,7 +19188,7 @@
     </row>
     <row r="42" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5" t="s">
-        <v>2216</v>
+        <v>2337</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -18849,7 +19213,7 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="s">
-        <v>2217</v>
+        <v>2338</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -18874,7 +19238,7 @@
     </row>
     <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="s">
-        <v>2218</v>
+        <v>2339</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -18899,7 +19263,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="s">
-        <v>2219</v>
+        <v>2340</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -18924,7 +19288,7 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
-        <v>2220</v>
+        <v>2341</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -18949,7 +19313,7 @@
     </row>
     <row r="47" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="s">
-        <v>2221</v>
+        <v>2342</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -18974,7 +19338,7 @@
     </row>
     <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5" t="s">
-        <v>2222</v>
+        <v>2343</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -21546,38 +21910,38 @@
     </row>
     <row r="6" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>2223</v>
+        <v>2344</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2224</v>
+        <v>2345</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>2225</v>
+        <v>2346</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>2226</v>
+        <v>2347</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="8" t="s">
         <v>131</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2227</v>
+        <v>2348</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>2228</v>
+        <v>2349</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>2229</v>
+        <v>2350</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>2230</v>
+        <v>2351</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
@@ -21596,22 +21960,22 @@
       <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>2231</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>2232</v>
+      <c r="D7" s="53" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>2353</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="35" t="s">
-        <v>2233</v>
+        <v>2354</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>2234</v>
+        <v>2355</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>2235</v>
+        <v>2356</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>26</v>
@@ -21636,25 +22000,25 @@
       <c r="B8" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="52" t="s">
-        <v>2236</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>2237</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>2238</v>
+      <c r="C8" s="53" t="s">
+        <v>2357</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>2358</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>2359</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="35" t="s">
-        <v>2239</v>
+        <v>2360</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>2240</v>
+        <v>2361</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>26</v>
@@ -21677,16 +22041,16 @@
     </row>
     <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="17" t="s">
-        <v>2241</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>2242</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>2243</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>2244</v>
+        <v>2362</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>2364</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>2365</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -21697,7 +22061,7 @@
         <v>26</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>2245</v>
+        <v>2366</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>26</v>
@@ -21722,17 +22086,17 @@
       <c r="B10" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="52" t="s">
-        <v>2246</v>
+      <c r="D10" s="53" t="s">
+        <v>2367</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="35" t="s">
-        <v>2247</v>
+        <v>2368</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
@@ -21751,19 +22115,19 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="17" t="s">
-        <v>2248</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>2249</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>2250</v>
+        <v>2369</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>2370</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>2371</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="35" t="s">
-        <v>2251</v>
+        <v>2372</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
@@ -21782,19 +22146,19 @@
     </row>
     <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="17" t="s">
-        <v>2252</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>2253</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>2254</v>
+        <v>2373</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>2375</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="35" t="s">
-        <v>2255</v>
+        <v>2376</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
@@ -21813,19 +22177,19 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="17" t="s">
-        <v>2256</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>2257</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>2258</v>
+        <v>2377</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>2379</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="35" t="s">
-        <v>2259</v>
+        <v>2380</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
@@ -21844,19 +22208,19 @@
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="17" t="s">
-        <v>2260</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>2253</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>2261</v>
+        <v>2381</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>2382</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="35" t="s">
-        <v>2262</v>
+        <v>2383</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
@@ -21875,19 +22239,19 @@
     </row>
     <row r="15" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="17" t="s">
-        <v>2263</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>2264</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>2265</v>
+        <v>2384</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>2385</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>2386</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="35" t="s">
-        <v>2266</v>
+        <v>2387</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="6"/>
@@ -21906,19 +22270,19 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="17" t="s">
-        <v>2267</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>2268</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>2269</v>
+        <v>2388</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>2390</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="35" t="s">
-        <v>2270</v>
+        <v>2391</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="6"/>
@@ -21937,19 +22301,19 @@
     </row>
     <row r="17" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="17" t="s">
-        <v>2271</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>2272</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>2273</v>
+        <v>2392</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>2394</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="35" t="s">
-        <v>2274</v>
+        <v>2395</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="6"/>
@@ -21968,19 +22332,19 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="17" t="s">
-        <v>2275</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>2276</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>2277</v>
+        <v>2396</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>2398</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="35" t="s">
-        <v>2278</v>
+        <v>2399</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="6"/>
@@ -22001,11 +22365,11 @@
       <c r="B19" s="17" t="s">
         <v>1495</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="53" t="s">
         <v>1408</v>
       </c>
-      <c r="D19" s="52" t="s">
-        <v>2279</v>
+      <c r="D19" s="53" t="s">
+        <v>2400</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -22028,13 +22392,13 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="17" t="s">
-        <v>2280</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>2281</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>2282</v>
+        <v>2401</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>2403</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -22057,12 +22421,12 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="17" t="s">
-        <v>2283</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>2284</v>
-      </c>
-      <c r="D21" s="52" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D21" s="53" t="s">
         <v>617</v>
       </c>
       <c r="E21" s="6"/>
@@ -22086,13 +22450,13 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="17" t="s">
-        <v>2285</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>2286</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>2287</v>
+        <v>2406</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>2408</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -22115,13 +22479,13 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="17" t="s">
-        <v>2288</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>2289</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>2290</v>
+        <v>2409</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>2411</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -22144,10 +22508,10 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="17" t="s">
-        <v>2291</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>2292</v>
+        <v>2412</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>2413</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -22171,10 +22535,10 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="17" t="s">
-        <v>2293</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>2294</v>
+        <v>2414</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>2415</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -22198,10 +22562,10 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="17" t="s">
-        <v>2295</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>2296</v>
+        <v>2416</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>2417</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -22225,10 +22589,10 @@
     </row>
     <row r="27" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="17" t="s">
-        <v>2297</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>2298</v>
+        <v>2418</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>1844</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -22252,9 +22616,9 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="17" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C28" s="52" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C28" s="53" t="s">
         <v>1423</v>
       </c>
       <c r="D28" s="6"/>
@@ -22279,10 +22643,10 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="17" t="s">
-        <v>2300</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>2301</v>
+        <v>2420</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>2421</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -22306,10 +22670,10 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="17" t="s">
-        <v>1937</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>2302</v>
+        <v>2060</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>2422</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -22333,10 +22697,10 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="17" t="s">
-        <v>2303</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>2304</v>
+        <v>2423</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>2424</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -22360,10 +22724,10 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="17" t="s">
-        <v>2305</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>2306</v>
+        <v>2425</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>2426</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -22387,10 +22751,10 @@
     </row>
     <row r="33" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="17" t="s">
-        <v>2307</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>2308</v>
+        <v>2427</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>2428</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -22414,10 +22778,10 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="17" t="s">
-        <v>2309</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>2310</v>
+        <v>2429</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>2430</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -22441,10 +22805,10 @@
     </row>
     <row r="35" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="17" t="s">
-        <v>2311</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>2312</v>
+        <v>2431</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>2432</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -22468,10 +22832,10 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="17" t="s">
-        <v>2313</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>2314</v>
+        <v>2433</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>2434</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -22497,8 +22861,8 @@
       <c r="B37" s="17" t="s">
         <v>997</v>
       </c>
-      <c r="C37" s="52" t="s">
-        <v>2315</v>
+      <c r="C37" s="53" t="s">
+        <v>2435</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -22522,10 +22886,10 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="17" t="s">
-        <v>2316</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>2317</v>
+        <v>2436</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>2437</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -22549,10 +22913,10 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="17" t="s">
-        <v>2318</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>2319</v>
+        <v>2438</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>2439</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -22576,7 +22940,7 @@
     </row>
     <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="17" t="s">
-        <v>2320</v>
+        <v>2440</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -22601,7 +22965,7 @@
     </row>
     <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="17" t="s">
-        <v>2321</v>
+        <v>2441</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -22626,7 +22990,7 @@
     </row>
     <row r="42" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="17" t="s">
-        <v>2322</v>
+        <v>2442</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -22651,7 +23015,7 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="17" t="s">
-        <v>2323</v>
+        <v>2443</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -22676,7 +23040,7 @@
     </row>
     <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="17" t="s">
-        <v>2324</v>
+        <v>2444</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -22701,7 +23065,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="17" t="s">
-        <v>2325</v>
+        <v>2445</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -22726,7 +23090,7 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="17" t="s">
-        <v>2326</v>
+        <v>2446</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -22776,7 +23140,7 @@
     </row>
     <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="17" t="s">
-        <v>2327</v>
+        <v>2447</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -22801,7 +23165,7 @@
     </row>
     <row r="49" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="17" t="s">
-        <v>2328</v>
+        <v>2448</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -22826,7 +23190,7 @@
     </row>
     <row r="50" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5" t="s">
-        <v>2329</v>
+        <v>2449</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -49864,8 +50228,8 @@
   </sheetPr>
   <dimension ref="B3:V178"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B52" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50071,9 +50435,11 @@
       <c r="K6" s="47" t="s">
         <v>519</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>1693</v>
+      </c>
       <c r="M6" s="9" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
@@ -50082,16 +50448,16 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>335</v>
+        <v>418</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
         <v>1064</v>
       </c>
@@ -50099,26 +50465,26 @@
         <v>93</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="8" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>1701</v>
-      </c>
-      <c r="L7" s="6"/>
+        <v>1702</v>
+      </c>
+      <c r="L7" s="0"/>
       <c r="M7" s="15"/>
       <c r="N7" s="5"/>
       <c r="O7" s="6"/>
@@ -50127,34 +50493,36 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6" t="s">
-        <v>1702</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="V7" s="8"/>
+        <v>1703</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="8" t="s">
+        <v>1704</v>
+      </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>1423</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1704</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>1706</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>1707</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>976</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>960</v>
@@ -50168,22 +50536,20 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6" t="s">
-        <v>1707</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>358</v>
-      </c>
+        <v>1710</v>
+      </c>
+      <c r="U8" s="6"/>
       <c r="V8" s="8"/>
     </row>
     <row r="9" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -50191,12 +50557,14 @@
       <c r="H9" s="6" t="s">
         <v>1141</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>1714</v>
+      </c>
       <c r="J9" s="15" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="18"/>
@@ -50206,30 +50574,36 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
+      <c r="T9" s="6" t="s">
+        <v>1717</v>
+      </c>
+      <c r="U9" s="0"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>1713</v>
+        <v>1718</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>1621</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1714</v>
+        <v>1719</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="8" t="s">
-        <v>1715</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
+        <v>1720</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1721</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>1722</v>
+      </c>
       <c r="K10" s="6" t="s">
-        <v>1716</v>
+        <v>1723</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="8"/>
@@ -50239,7 +50613,9 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
+      <c r="T10" s="6" t="s">
+        <v>1724</v>
+      </c>
       <c r="U10" s="6"/>
       <c r="V10" s="8"/>
     </row>
@@ -50248,21 +50624,25 @@
         <v>1267</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1717</v>
+        <v>1725</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1718</v>
+        <v>1726</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="0" t="s">
-        <v>1719</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
+        <v>1727</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>1729</v>
+      </c>
       <c r="K11" s="6" t="s">
-        <v>1720</v>
+        <v>1730</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="8"/>
@@ -50272,7 +50652,9 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="T11" s="6" t="s">
+        <v>1731</v>
+      </c>
       <c r="U11" s="6"/>
       <c r="V11" s="8"/>
     </row>
@@ -50281,10 +50663,10 @@
         <v>617</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1721</v>
+        <v>1732</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1722</v>
+        <v>1733</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -50292,9 +50674,15 @@
       <c r="H12" s="8" t="s">
         <v>997</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="I12" s="5" t="s">
+        <v>1734</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>1735</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="8"/>
       <c r="N12" s="5"/>
@@ -50303,29 +50691,37 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
+      <c r="T12" s="6" t="s">
+        <v>1736</v>
+      </c>
       <c r="U12" s="6"/>
       <c r="V12" s="8"/>
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>1723</v>
+        <v>1737</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1725</v>
+        <v>1739</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="8" t="s">
-        <v>1726</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+        <v>1740</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>1741</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>1742</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>1743</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="8"/>
       <c r="N13" s="5"/>
@@ -50334,28 +50730,34 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
+      <c r="T13" s="6" t="s">
+        <v>1744</v>
+      </c>
       <c r="U13" s="6"/>
       <c r="V13" s="8"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>1727</v>
+        <v>1745</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1728</v>
+        <v>1746</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1729</v>
+        <v>1747</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="8" t="s">
-        <v>1730</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
+        <v>1748</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>1749</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>1750</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="8"/>
@@ -50365,27 +50767,31 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
+      <c r="T14" s="6" t="s">
+        <v>1751</v>
+      </c>
       <c r="U14" s="6"/>
       <c r="V14" s="8"/>
     </row>
     <row r="15" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
-        <v>1731</v>
+        <v>1752</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1732</v>
+        <v>1753</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1733</v>
+        <v>1754</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="8" t="s">
-        <v>1734</v>
-      </c>
-      <c r="I15" s="5"/>
+        <v>1755</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>1756</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -50396,27 +50802,31 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
+      <c r="T15" s="6" t="s">
+        <v>1757</v>
+      </c>
       <c r="U15" s="6"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>1735</v>
+        <v>1758</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1736</v>
+        <v>1759</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1737</v>
+        <v>1760</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="8" t="s">
-        <v>1738</v>
-      </c>
-      <c r="I16" s="5"/>
+        <v>1761</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>1762</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -50427,27 +50837,31 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
+      <c r="T16" s="6" t="s">
+        <v>1763</v>
+      </c>
       <c r="U16" s="6"/>
       <c r="V16" s="8"/>
     </row>
     <row r="17" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
-        <v>1739</v>
+        <v>1764</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1740</v>
+        <v>1765</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1741</v>
+        <v>1766</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="8" t="s">
-        <v>1742</v>
-      </c>
-      <c r="I17" s="5"/>
+        <v>1767</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>846</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -50458,23 +50872,27 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
+      <c r="T17" s="6" t="s">
+        <v>1768</v>
+      </c>
       <c r="U17" s="6"/>
       <c r="V17" s="8"/>
     </row>
-    <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
-        <v>1743</v>
+        <v>1769</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1744</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>1770</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1771</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="8" t="s">
-        <v>1745</v>
+        <v>1772</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="6"/>
@@ -50487,23 +50905,27 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
+      <c r="T18" s="6" t="s">
+        <v>1773</v>
+      </c>
       <c r="U18" s="6"/>
       <c r="V18" s="8"/>
     </row>
-    <row r="19" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="s">
-        <v>1746</v>
+        <v>1774</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>1775</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1776</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="49" t="s">
-        <v>1748</v>
+        <v>1777</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6"/>
@@ -50516,23 +50938,27 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
+      <c r="T19" s="6" t="s">
+        <v>1778</v>
+      </c>
       <c r="U19" s="6"/>
       <c r="V19" s="8"/>
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
-        <v>1749</v>
+        <v>1779</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>1780</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1781</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="8" t="s">
-        <v>1751</v>
+        <v>1782</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="6"/>
@@ -50545,23 +50971,27 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+      <c r="T20" s="6" t="s">
+        <v>1783</v>
+      </c>
       <c r="U20" s="6"/>
       <c r="V20" s="8"/>
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
-        <v>1752</v>
+        <v>1784</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>1785</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1786</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="8" t="s">
-        <v>1754</v>
+        <v>1787</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="6"/>
@@ -50578,16 +51008,22 @@
       <c r="U21" s="6"/>
       <c r="V21" s="8"/>
     </row>
-    <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
-        <v>1755</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+        <v>1788</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>1790</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>380</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -50603,16 +51039,22 @@
       <c r="U22" s="6"/>
       <c r="V22" s="8"/>
     </row>
-    <row r="23" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+        <v>1791</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>1793</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>1794</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -50628,16 +51070,22 @@
       <c r="U23" s="6"/>
       <c r="V23" s="8"/>
     </row>
-    <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+        <v>1795</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>975</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="8" t="s">
+        <v>1797</v>
+      </c>
       <c r="I24" s="5"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -50655,14 +51103,20 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+        <v>1798</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>1800</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="8" t="s">
+        <v>1801</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -50680,14 +51134,20 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+        <v>1802</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>1804</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="0" t="s">
+        <v>1805</v>
+      </c>
       <c r="I26" s="5"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -50705,14 +51165,20 @@
     </row>
     <row r="27" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+        <v>1806</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>1808</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="8"/>
+      <c r="H27" s="8" t="s">
+        <v>1809</v>
+      </c>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -50728,16 +51194,22 @@
       <c r="U27" s="6"/>
       <c r="V27" s="8"/>
     </row>
-    <row r="28" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+        <v>1810</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>1812</v>
+      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="8" t="s">
+        <v>1813</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -50755,14 +51227,18 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="s">
-        <v>1762</v>
-      </c>
-      <c r="C29" s="6"/>
+        <v>1814</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>1815</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="8"/>
+      <c r="H29" s="8" t="s">
+        <v>1816</v>
+      </c>
       <c r="I29" s="5"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -50780,14 +51256,18 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>1817</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>1818</v>
+      </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="8"/>
+      <c r="H30" s="8" t="s">
+        <v>1819</v>
+      </c>
       <c r="I30" s="5"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -50805,14 +51285,18 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C31" s="6"/>
+        <v>1820</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>1821</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>1822</v>
+      </c>
       <c r="I31" s="5"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -50830,14 +51314,18 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="s">
-        <v>1765</v>
-      </c>
-      <c r="C32" s="6"/>
+        <v>1823</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>1824</v>
+      </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="8"/>
+      <c r="H32" s="8" t="s">
+        <v>1825</v>
+      </c>
       <c r="I32" s="5"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -50853,11 +51341,13 @@
       <c r="U32" s="6"/>
       <c r="V32" s="8"/>
     </row>
-    <row r="33" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5" t="s">
-        <v>1766</v>
-      </c>
-      <c r="C33" s="6"/>
+        <v>1826</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>1827</v>
+      </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -50880,9 +51370,11 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C34" s="6"/>
+        <v>1828</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>1829</v>
+      </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -50905,9 +51397,11 @@
     </row>
     <row r="35" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="5" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C35" s="6"/>
+        <v>1830</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>1831</v>
+      </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -50930,9 +51424,11 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="s">
-        <v>1769</v>
-      </c>
-      <c r="C36" s="6"/>
+        <v>1832</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>1833</v>
+      </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -50953,9 +51449,13 @@
       <c r="U36" s="6"/>
       <c r="V36" s="8"/>
     </row>
-    <row r="37" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
+    <row r="37" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>1834</v>
+      </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -50976,9 +51476,13 @@
       <c r="U37" s="6"/>
       <c r="V37" s="8"/>
     </row>
-    <row r="38" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
+    <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="5" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>1836</v>
+      </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -50999,9 +51503,13 @@
       <c r="U38" s="6"/>
       <c r="V38" s="8"/>
     </row>
-    <row r="39" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
+    <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="5" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>1838</v>
+      </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -51022,9 +51530,13 @@
       <c r="U39" s="6"/>
       <c r="V39" s="8"/>
     </row>
-    <row r="40" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
+    <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="5" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>1840</v>
+      </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -51045,9 +51557,13 @@
       <c r="U40" s="6"/>
       <c r="V40" s="8"/>
     </row>
-    <row r="41" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
+    <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="50" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>1842</v>
+      </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -51068,9 +51584,13 @@
       <c r="U41" s="6"/>
       <c r="V41" s="8"/>
     </row>
-    <row r="42" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
+    <row r="42" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="5" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>1844</v>
+      </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -51091,9 +51611,13 @@
       <c r="U42" s="6"/>
       <c r="V42" s="8"/>
     </row>
-    <row r="43" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
+    <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>1845</v>
+      </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -51114,9 +51638,13 @@
       <c r="U43" s="6"/>
       <c r="V43" s="8"/>
     </row>
-    <row r="44" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
+    <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="5" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>1847</v>
+      </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -51137,9 +51665,13 @@
       <c r="U44" s="6"/>
       <c r="V44" s="8"/>
     </row>
-    <row r="45" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
+    <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>1848</v>
+      </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -51160,9 +51692,13 @@
       <c r="U45" s="6"/>
       <c r="V45" s="8"/>
     </row>
-    <row r="46" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
+    <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="5" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>1850</v>
+      </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -51183,9 +51719,13 @@
       <c r="U46" s="6"/>
       <c r="V46" s="8"/>
     </row>
-    <row r="47" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
+    <row r="47" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="5" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>1852</v>
+      </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -51206,9 +51746,13 @@
       <c r="U47" s="6"/>
       <c r="V47" s="8"/>
     </row>
-    <row r="48" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
+    <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="5" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>1854</v>
+      </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -51229,9 +51773,13 @@
       <c r="U48" s="6"/>
       <c r="V48" s="8"/>
     </row>
-    <row r="49" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
+    <row r="49" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="5" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>1856</v>
+      </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -51252,9 +51800,13 @@
       <c r="U49" s="6"/>
       <c r="V49" s="8"/>
     </row>
-    <row r="50" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
+    <row r="50" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="5" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>1858</v>
+      </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -51275,9 +51827,13 @@
       <c r="U50" s="6"/>
       <c r="V50" s="8"/>
     </row>
-    <row r="51" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
+    <row r="51" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>1859</v>
+      </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -51298,9 +51854,13 @@
       <c r="U51" s="6"/>
       <c r="V51" s="8"/>
     </row>
-    <row r="52" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
+    <row r="52" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="5" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>1861</v>
+      </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -51321,9 +51881,13 @@
       <c r="U52" s="6"/>
       <c r="V52" s="8"/>
     </row>
-    <row r="53" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
+    <row r="53" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>1863</v>
+      </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -51344,9 +51908,13 @@
       <c r="U53" s="6"/>
       <c r="V53" s="8"/>
     </row>
-    <row r="54" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
+    <row r="54" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="5" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>1865</v>
+      </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -51367,9 +51935,13 @@
       <c r="U54" s="6"/>
       <c r="V54" s="8"/>
     </row>
-    <row r="55" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="5"/>
-      <c r="C55" s="6"/>
+    <row r="55" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="5" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>1867</v>
+      </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -51390,9 +51962,13 @@
       <c r="U55" s="6"/>
       <c r="V55" s="8"/>
     </row>
-    <row r="56" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="5"/>
-      <c r="C56" s="6"/>
+    <row r="56" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>1869</v>
+      </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -51413,9 +51989,13 @@
       <c r="U56" s="6"/>
       <c r="V56" s="8"/>
     </row>
-    <row r="57" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="5"/>
-      <c r="C57" s="6"/>
+    <row r="57" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="5" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>1871</v>
+      </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -51436,9 +52016,13 @@
       <c r="U57" s="6"/>
       <c r="V57" s="8"/>
     </row>
-    <row r="58" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
+    <row r="58" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="5" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>1873</v>
+      </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -51459,9 +52043,13 @@
       <c r="U58" s="6"/>
       <c r="V58" s="8"/>
     </row>
-    <row r="59" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="5"/>
-      <c r="C59" s="6"/>
+    <row r="59" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="5" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>1875</v>
+      </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -51482,9 +52070,13 @@
       <c r="U59" s="6"/>
       <c r="V59" s="8"/>
     </row>
-    <row r="60" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
+    <row r="60" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="5" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>1877</v>
+      </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -51505,9 +52097,13 @@
       <c r="U60" s="6"/>
       <c r="V60" s="8"/>
     </row>
-    <row r="61" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="5"/>
-      <c r="C61" s="6"/>
+    <row r="61" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="5" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>1878</v>
+      </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -51528,9 +52124,13 @@
       <c r="U61" s="6"/>
       <c r="V61" s="8"/>
     </row>
-    <row r="62" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
+    <row r="62" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="5" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>1880</v>
+      </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -51551,8 +52151,10 @@
       <c r="U62" s="6"/>
       <c r="V62" s="8"/>
     </row>
-    <row r="63" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="5"/>
+    <row r="63" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="5" t="s">
+        <v>1857</v>
+      </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -51574,8 +52176,10 @@
       <c r="U63" s="6"/>
       <c r="V63" s="8"/>
     </row>
-    <row r="64" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="5"/>
+    <row r="64" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="5" t="s">
+        <v>1881</v>
+      </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -51597,8 +52201,10 @@
       <c r="U64" s="6"/>
       <c r="V64" s="8"/>
     </row>
-    <row r="65" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="5"/>
+    <row r="65" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="5" t="s">
+        <v>1882</v>
+      </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -51620,8 +52226,10 @@
       <c r="U65" s="6"/>
       <c r="V65" s="8"/>
     </row>
-    <row r="66" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="5"/>
+    <row r="66" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="5" t="s">
+        <v>1883</v>
+      </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -51643,8 +52251,10 @@
       <c r="U66" s="6"/>
       <c r="V66" s="8"/>
     </row>
-    <row r="67" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="5"/>
+    <row r="67" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="5" t="s">
+        <v>1884</v>
+      </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -51666,8 +52276,10 @@
       <c r="U67" s="6"/>
       <c r="V67" s="8"/>
     </row>
-    <row r="68" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="5"/>
+    <row r="68" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="5" t="s">
+        <v>1176</v>
+      </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -51689,8 +52301,10 @@
       <c r="U68" s="6"/>
       <c r="V68" s="8"/>
     </row>
-    <row r="69" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="5"/>
+    <row r="69" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="5" t="s">
+        <v>1885</v>
+      </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -51712,8 +52326,10 @@
       <c r="U69" s="6"/>
       <c r="V69" s="8"/>
     </row>
-    <row r="70" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="5"/>
+    <row r="70" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="5" t="s">
+        <v>1886</v>
+      </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -51735,8 +52351,10 @@
       <c r="U70" s="6"/>
       <c r="V70" s="8"/>
     </row>
-    <row r="71" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="5"/>
+    <row r="71" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="5" t="s">
+        <v>1887</v>
+      </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -51758,8 +52376,10 @@
       <c r="U71" s="6"/>
       <c r="V71" s="8"/>
     </row>
-    <row r="72" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="5"/>
+    <row r="72" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="5" t="s">
+        <v>1888</v>
+      </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -51781,8 +52401,10 @@
       <c r="U72" s="6"/>
       <c r="V72" s="8"/>
     </row>
-    <row r="73" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="5"/>
+    <row r="73" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="5" t="s">
+        <v>1889</v>
+      </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -51804,8 +52426,10 @@
       <c r="U73" s="6"/>
       <c r="V73" s="8"/>
     </row>
-    <row r="74" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="5"/>
+    <row r="74" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="5" t="s">
+        <v>1890</v>
+      </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -51827,8 +52451,10 @@
       <c r="U74" s="6"/>
       <c r="V74" s="8"/>
     </row>
-    <row r="75" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="5"/>
+    <row r="75" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="5" t="s">
+        <v>1891</v>
+      </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -51850,8 +52476,10 @@
       <c r="U75" s="6"/>
       <c r="V75" s="8"/>
     </row>
-    <row r="76" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="5"/>
+    <row r="76" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="5" t="s">
+        <v>1332</v>
+      </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -51873,8 +52501,10 @@
       <c r="U76" s="6"/>
       <c r="V76" s="8"/>
     </row>
-    <row r="77" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="5"/>
+    <row r="77" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="5" t="s">
+        <v>1892</v>
+      </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -53758,7 +54388,7 @@
       <c r="G5" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="H5" s="50" t="n">
+      <c r="H5" s="51" t="n">
         <v>7</v>
       </c>
       <c r="I5" s="23" t="n">
@@ -53773,7 +54403,7 @@
       <c r="L5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="M5" s="50" t="n">
+      <c r="M5" s="51" t="n">
         <v>5</v>
       </c>
       <c r="N5" s="23" t="n">
@@ -53800,7 +54430,7 @@
       <c r="U5" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="V5" s="51" t="n">
+      <c r="V5" s="52" t="n">
         <v>9</v>
       </c>
     </row>
@@ -53809,45 +54439,45 @@
         <v>259</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1770</v>
+        <v>1893</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1771</v>
+        <v>1894</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1772</v>
+        <v>1895</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1773</v>
+        <v>1896</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
         <v>1624</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>1774</v>
+        <v>1897</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>1775</v>
+        <v>1898</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>1776</v>
+        <v>1899</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>1777</v>
+        <v>1900</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6" t="s">
-        <v>1778</v>
+        <v>1901</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>1779</v>
+        <v>1902</v>
       </c>
       <c r="V6" s="8"/>
     </row>
@@ -53859,18 +54489,18 @@
         <v>323</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1780</v>
+        <v>1903</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1781</v>
+        <v>1904</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7" t="s">
-        <v>1782</v>
+        <v>1905</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>1783</v>
+        <v>1906</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>365</v>
@@ -53879,7 +54509,7 @@
         <v>344</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>1784</v>
+        <v>1907</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="5"/>
@@ -53890,39 +54520,39 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>1785</v>
+        <v>1908</v>
       </c>
       <c r="V7" s="8"/>
     </row>
     <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>1786</v>
+        <v>1909</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1787</v>
+        <v>1910</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1788</v>
+        <v>1911</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1789</v>
+        <v>1912</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>1790</v>
+        <v>1913</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1791</v>
+        <v>1914</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>343</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>1792</v>
+        <v>1915</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>1793</v>
+        <v>1916</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="5"/>
@@ -53933,33 +54563,33 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6" t="s">
-        <v>1794</v>
+        <v>1917</v>
       </c>
       <c r="V8" s="8"/>
     </row>
     <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>1795</v>
+        <v>1918</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1796</v>
+        <v>1919</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1797</v>
+        <v>1920</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1798</v>
+        <v>1921</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7" t="s">
-        <v>1799</v>
+        <v>1922</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>1800</v>
+        <v>1923</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>1801</v>
+        <v>1924</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
@@ -53980,29 +54610,29 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>1802</v>
+        <v>1925</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1803</v>
+        <v>1926</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1804</v>
+        <v>1927</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
-        <v>1805</v>
+        <v>1928</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1806</v>
+        <v>1929</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>1807</v>
+        <v>1930</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>1808</v>
+        <v>1931</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="5"/>
@@ -54019,22 +54649,22 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>1809</v>
+        <v>1932</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1810</v>
+        <v>1933</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1811</v>
+        <v>1934</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7" t="s">
-        <v>1812</v>
+        <v>1935</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1813</v>
+        <v>1936</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>88</v>
@@ -54052,35 +54682,35 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6" t="s">
-        <v>1814</v>
+        <v>1937</v>
       </c>
       <c r="V11" s="8"/>
     </row>
     <row r="12" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>1815</v>
+        <v>1938</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1816</v>
+        <v>1939</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1817</v>
+        <v>1940</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7" t="s">
-        <v>1818</v>
+        <v>1941</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1819</v>
+        <v>1942</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>1820</v>
+        <v>1943</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6" t="s">
-        <v>1821</v>
+        <v>1944</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="5"/>
@@ -54091,31 +54721,31 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6" t="s">
-        <v>1822</v>
+        <v>1945</v>
       </c>
       <c r="V12" s="8"/>
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>1823</v>
+        <v>1946</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1824</v>
+        <v>1947</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1825</v>
+        <v>1948</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>1826</v>
+        <v>1949</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1827</v>
+        <v>1950</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>1828</v>
+        <v>1951</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -54128,31 +54758,31 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6" t="s">
-        <v>1829</v>
+        <v>1952</v>
       </c>
       <c r="V13" s="8"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>1830</v>
+        <v>1953</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1831</v>
+        <v>1954</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1832</v>
+        <v>1955</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>1833</v>
+        <v>1956</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1834</v>
+        <v>1957</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>1835</v>
+        <v>1958</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -54169,22 +54799,22 @@
     </row>
     <row r="15" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
-        <v>1836</v>
+        <v>1959</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1837</v>
+        <v>1960</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1838</v>
+        <v>1961</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
-        <v>1839</v>
+        <v>1962</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1840</v>
+        <v>1963</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -54202,22 +54832,22 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>1841</v>
+        <v>1964</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1842</v>
+        <v>1965</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1843</v>
+        <v>1966</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>1844</v>
+        <v>1967</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1845</v>
+        <v>1968</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -54235,22 +54865,22 @@
     </row>
     <row r="17" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
-        <v>1846</v>
+        <v>1969</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>1408</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1847</v>
+        <v>1970</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
-        <v>1848</v>
+        <v>1971</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1849</v>
+        <v>1972</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -54268,20 +54898,20 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
-        <v>1850</v>
+        <v>1973</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1851</v>
+        <v>1974</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="7" t="s">
-        <v>1852</v>
+        <v>1975</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1853</v>
+        <v>1976</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -54299,20 +54929,20 @@
     </row>
     <row r="19" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="s">
-        <v>1854</v>
+        <v>1977</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1855</v>
+        <v>1978</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
-        <v>1856</v>
+        <v>1979</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1857</v>
+        <v>1980</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -54330,20 +54960,20 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
-        <v>1858</v>
+        <v>1981</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1859</v>
+        <v>1982</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="7" t="s">
-        <v>1860</v>
+        <v>1983</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1861</v>
+        <v>1984</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -54361,20 +54991,20 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
-        <v>1862</v>
+        <v>1985</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1863</v>
+        <v>1986</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="7" t="s">
-        <v>1864</v>
+        <v>1987</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1865</v>
+        <v>1988</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -54392,7 +55022,7 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
-        <v>1866</v>
+        <v>1989</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -54400,7 +55030,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="7" t="s">
-        <v>1867</v>
+        <v>1990</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="6"/>
@@ -54419,7 +55049,7 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
-        <v>1868</v>
+        <v>1991</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -54427,7 +55057,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="7" t="s">
-        <v>1869</v>
+        <v>1992</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="6"/>
@@ -54446,7 +55076,7 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
-        <v>1870</v>
+        <v>1993</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -54454,7 +55084,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>1871</v>
+        <v>1994</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="6"/>
@@ -54473,7 +55103,7 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
-        <v>1872</v>
+        <v>1995</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -54481,7 +55111,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>1873</v>
+        <v>1996</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
@@ -54500,7 +55130,7 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
-        <v>1874</v>
+        <v>1997</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -54508,7 +55138,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="7" t="s">
-        <v>1875</v>
+        <v>1998</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="6"/>
@@ -54535,7 +55165,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="s">
-        <v>1876</v>
+        <v>1999</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
@@ -54554,7 +55184,7 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>1877</v>
+        <v>2000</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -54562,7 +55192,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7" t="s">
-        <v>1878</v>
+        <v>2001</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="6"/>
@@ -54581,7 +55211,7 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="s">
-        <v>1879</v>
+        <v>2002</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -54589,7 +55219,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7" t="s">
-        <v>1880</v>
+        <v>2003</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="6"/>
@@ -54608,7 +55238,7 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>1881</v>
+        <v>2004</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -54616,7 +55246,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7" t="s">
-        <v>1882</v>
+        <v>2005</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="6"/>
@@ -54635,7 +55265,7 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="s">
-        <v>1883</v>
+        <v>2006</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -54643,7 +55273,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7" t="s">
-        <v>1884</v>
+        <v>2007</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="6"/>
@@ -54662,7 +55292,7 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="s">
-        <v>1885</v>
+        <v>2008</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -54670,7 +55300,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7" t="s">
-        <v>1886</v>
+        <v>2009</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="6"/>
@@ -54689,7 +55319,7 @@
     </row>
     <row r="33" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5" t="s">
-        <v>1887</v>
+        <v>2010</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -54697,7 +55327,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="7" t="s">
-        <v>1888</v>
+        <v>2011</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
@@ -54716,7 +55346,7 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
-        <v>1889</v>
+        <v>2012</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -54724,7 +55354,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7" t="s">
-        <v>1890</v>
+        <v>2013</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="6"/>
@@ -54743,7 +55373,7 @@
     </row>
     <row r="35" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="5" t="s">
-        <v>1891</v>
+        <v>2014</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -54751,7 +55381,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="7" t="s">
-        <v>1892</v>
+        <v>2015</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="6"/>
@@ -54770,7 +55400,7 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="s">
-        <v>1893</v>
+        <v>2016</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -54778,7 +55408,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="7" t="s">
-        <v>1894</v>
+        <v>2017</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="6"/>
@@ -54797,7 +55427,7 @@
     </row>
     <row r="37" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5" t="s">
-        <v>1895</v>
+        <v>2018</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -54805,7 +55435,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="7" t="s">
-        <v>1896</v>
+        <v>2019</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="6"/>
@@ -54824,7 +55454,7 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5" t="s">
-        <v>1897</v>
+        <v>2020</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -54832,7 +55462,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="7" t="s">
-        <v>1898</v>
+        <v>2021</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="6"/>
@@ -54851,7 +55481,7 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="s">
-        <v>1899</v>
+        <v>2022</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -54876,7 +55506,7 @@
     </row>
     <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5" t="s">
-        <v>1900</v>
+        <v>2023</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -54901,7 +55531,7 @@
     </row>
     <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="s">
-        <v>1901</v>
+        <v>2024</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -54926,7 +55556,7 @@
     </row>
     <row r="42" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5" t="s">
-        <v>1902</v>
+        <v>2025</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -54951,7 +55581,7 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="s">
-        <v>1903</v>
+        <v>2026</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -54976,7 +55606,7 @@
     </row>
     <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="s">
-        <v>1904</v>
+        <v>2027</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -55001,7 +55631,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="s">
-        <v>1905</v>
+        <v>2028</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -55026,7 +55656,7 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
-        <v>1906</v>
+        <v>2029</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -55051,7 +55681,7 @@
     </row>
     <row r="47" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="s">
-        <v>1907</v>
+        <v>2030</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -55076,7 +55706,7 @@
     </row>
     <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5" t="s">
-        <v>1908</v>
+        <v>2031</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -55176,7 +55806,7 @@
     </row>
     <row r="52" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5" t="s">
-        <v>1909</v>
+        <v>2032</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -55201,7 +55831,7 @@
     </row>
     <row r="53" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="5" t="s">
-        <v>1910</v>
+        <v>2033</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -55226,7 +55856,7 @@
     </row>
     <row r="54" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="5" t="s">
-        <v>1911</v>
+        <v>2034</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -55276,7 +55906,7 @@
     </row>
     <row r="56" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="s">
-        <v>1912</v>
+        <v>2035</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -55301,7 +55931,7 @@
     </row>
     <row r="57" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="5" t="s">
-        <v>1913</v>
+        <v>2036</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -55326,7 +55956,7 @@
     </row>
     <row r="58" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="5" t="s">
-        <v>1914</v>
+        <v>2037</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -55351,7 +55981,7 @@
     </row>
     <row r="59" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="5" t="s">
-        <v>1915</v>
+        <v>2038</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -55376,7 +56006,7 @@
     </row>
     <row r="60" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="5" t="s">
-        <v>1916</v>
+        <v>2039</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -55401,7 +56031,7 @@
     </row>
     <row r="61" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="5" t="s">
-        <v>1917</v>
+        <v>2040</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -55426,7 +56056,7 @@
     </row>
     <row r="62" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="5" t="s">
-        <v>1918</v>
+        <v>2041</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -55451,7 +56081,7 @@
     </row>
     <row r="63" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="5" t="s">
-        <v>1919</v>
+        <v>2042</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -55551,7 +56181,7 @@
     </row>
     <row r="67" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="5" t="s">
-        <v>1920</v>
+        <v>2043</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -55576,7 +56206,7 @@
     </row>
     <row r="68" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="5" t="s">
-        <v>1921</v>
+        <v>2044</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -55601,7 +56231,7 @@
     </row>
     <row r="69" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="5" t="s">
-        <v>1922</v>
+        <v>2045</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -55626,7 +56256,7 @@
     </row>
     <row r="70" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="5" t="s">
-        <v>1923</v>
+        <v>2046</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -55651,7 +56281,7 @@
     </row>
     <row r="71" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="5" t="s">
-        <v>1924</v>
+        <v>2047</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -55676,7 +56306,7 @@
     </row>
     <row r="72" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="5" t="s">
-        <v>1925</v>
+        <v>2048</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -55701,7 +56331,7 @@
     </row>
     <row r="73" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="5" t="s">
-        <v>1926</v>
+        <v>2049</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -55726,7 +56356,7 @@
     </row>
     <row r="74" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="5" t="s">
-        <v>1878</v>
+        <v>2001</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -55751,7 +56381,7 @@
     </row>
     <row r="75" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="5" t="s">
-        <v>1927</v>
+        <v>2050</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -55776,7 +56406,7 @@
     </row>
     <row r="76" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="5" t="s">
-        <v>1928</v>
+        <v>2051</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -55801,7 +56431,7 @@
     </row>
     <row r="77" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="5" t="s">
-        <v>1929</v>
+        <v>2052</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -55826,7 +56456,7 @@
     </row>
     <row r="78" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="5" t="s">
-        <v>1930</v>
+        <v>2053</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -55851,7 +56481,7 @@
     </row>
     <row r="79" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="5" t="s">
-        <v>1931</v>
+        <v>2054</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -55876,7 +56506,7 @@
     </row>
     <row r="80" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="5" t="s">
-        <v>1932</v>
+        <v>2055</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -55901,7 +56531,7 @@
     </row>
     <row r="81" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="5" t="s">
-        <v>1933</v>
+        <v>2056</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -55926,7 +56556,7 @@
     </row>
     <row r="82" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="5" t="s">
-        <v>1934</v>
+        <v>2057</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -55951,7 +56581,7 @@
     </row>
     <row r="83" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="5" t="s">
-        <v>1935</v>
+        <v>2058</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -55976,7 +56606,7 @@
     </row>
     <row r="84" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="5" t="s">
-        <v>1936</v>
+        <v>2059</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -56026,7 +56656,7 @@
     </row>
     <row r="86" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="5" t="s">
-        <v>1937</v>
+        <v>2060</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -56051,7 +56681,7 @@
     </row>
     <row r="87" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="5" t="s">
-        <v>1938</v>
+        <v>2061</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -56076,7 +56706,7 @@
     </row>
     <row r="88" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="5" t="s">
-        <v>1939</v>
+        <v>2062</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -56101,7 +56731,7 @@
     </row>
     <row r="89" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="5" t="s">
-        <v>1940</v>
+        <v>2063</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -56126,7 +56756,7 @@
     </row>
     <row r="90" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="5" t="s">
-        <v>1941</v>
+        <v>2064</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -56151,7 +56781,7 @@
     </row>
     <row r="91" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="5" t="s">
-        <v>1942</v>
+        <v>2065</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -56176,7 +56806,7 @@
     </row>
     <row r="92" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="5" t="s">
-        <v>1943</v>
+        <v>2066</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -56201,7 +56831,7 @@
     </row>
     <row r="93" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="5" t="s">
-        <v>1944</v>
+        <v>2067</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -56226,7 +56856,7 @@
     </row>
     <row r="94" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="5" t="s">
-        <v>1945</v>
+        <v>2068</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -56251,7 +56881,7 @@
     </row>
     <row r="95" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="5" t="s">
-        <v>1946</v>
+        <v>2069</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -56276,7 +56906,7 @@
     </row>
     <row r="96" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="5" t="s">
-        <v>1947</v>
+        <v>2070</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -56326,7 +56956,7 @@
     </row>
     <row r="98" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="5" t="s">
-        <v>1948</v>
+        <v>2071</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -56351,7 +56981,7 @@
     </row>
     <row r="99" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="5" t="s">
-        <v>1949</v>
+        <v>2072</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -56376,7 +57006,7 @@
     </row>
     <row r="100" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="5" t="s">
-        <v>1950</v>
+        <v>2073</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -56401,7 +57031,7 @@
     </row>
     <row r="101" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="5" t="s">
-        <v>1951</v>
+        <v>2074</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -56426,7 +57056,7 @@
     </row>
     <row r="102" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="5" t="s">
-        <v>1952</v>
+        <v>2075</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -56476,7 +57106,7 @@
     </row>
     <row r="104" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="5" t="s">
-        <v>1953</v>
+        <v>2076</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -56501,7 +57131,7 @@
     </row>
     <row r="105" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="5" t="s">
-        <v>1954</v>
+        <v>2077</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -56526,7 +57156,7 @@
     </row>
     <row r="106" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="5" t="s">
-        <v>1955</v>
+        <v>2078</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -56551,7 +57181,7 @@
     </row>
     <row r="107" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="5" t="s">
-        <v>1956</v>
+        <v>2079</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -56576,7 +57206,7 @@
     </row>
     <row r="108" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="5" t="s">
-        <v>1957</v>
+        <v>1851</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -56601,7 +57231,7 @@
     </row>
     <row r="109" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="5" t="s">
-        <v>1958</v>
+        <v>2080</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -56626,7 +57256,7 @@
     </row>
     <row r="110" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="5" t="s">
-        <v>1959</v>
+        <v>2081</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -56651,7 +57281,7 @@
     </row>
     <row r="111" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="5" t="s">
-        <v>1960</v>
+        <v>2082</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -56676,7 +57306,7 @@
     </row>
     <row r="112" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="5" t="s">
-        <v>1961</v>
+        <v>2083</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -56701,7 +57331,7 @@
     </row>
     <row r="113" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="5" t="s">
-        <v>1962</v>
+        <v>2084</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -56726,7 +57356,7 @@
     </row>
     <row r="114" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="5" t="s">
-        <v>1963</v>
+        <v>2085</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -56751,7 +57381,7 @@
     </row>
     <row r="115" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="5" t="s">
-        <v>1964</v>
+        <v>2086</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -56776,7 +57406,7 @@
     </row>
     <row r="116" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="5" t="s">
-        <v>1965</v>
+        <v>2087</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -56801,7 +57431,7 @@
     </row>
     <row r="117" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="5" t="s">
-        <v>1966</v>
+        <v>2088</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -56851,7 +57481,7 @@
     </row>
     <row r="119" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="5" t="s">
-        <v>1967</v>
+        <v>2089</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -56876,7 +57506,7 @@
     </row>
     <row r="120" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="5" t="s">
-        <v>1968</v>
+        <v>2090</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -56901,7 +57531,7 @@
     </row>
     <row r="121" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="5" t="s">
-        <v>1969</v>
+        <v>2091</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -56926,7 +57556,7 @@
     </row>
     <row r="122" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="5" t="s">
-        <v>1970</v>
+        <v>2092</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -56951,7 +57581,7 @@
     </row>
     <row r="123" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="5" t="s">
-        <v>1971</v>
+        <v>2093</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -56976,7 +57606,7 @@
     </row>
     <row r="124" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="5" t="s">
-        <v>1972</v>
+        <v>2094</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -57001,7 +57631,7 @@
     </row>
     <row r="125" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="5" t="s">
-        <v>1973</v>
+        <v>2095</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -57026,7 +57656,7 @@
     </row>
     <row r="126" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="5" t="s">
-        <v>1974</v>
+        <v>1870</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -57051,7 +57681,7 @@
     </row>
     <row r="127" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="5" t="s">
-        <v>1975</v>
+        <v>2096</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -57076,7 +57706,7 @@
     </row>
     <row r="128" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="5" t="s">
-        <v>1976</v>
+        <v>2097</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -57101,7 +57731,7 @@
     </row>
     <row r="129" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="5" t="s">
-        <v>1977</v>
+        <v>2098</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -57126,7 +57756,7 @@
     </row>
     <row r="130" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="5" t="s">
-        <v>1978</v>
+        <v>2099</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -57151,7 +57781,7 @@
     </row>
     <row r="131" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="5" t="s">
-        <v>1979</v>
+        <v>2100</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -57176,7 +57806,7 @@
     </row>
     <row r="132" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="5" t="s">
-        <v>1980</v>
+        <v>2101</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -57201,7 +57831,7 @@
     </row>
     <row r="133" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="5" t="s">
-        <v>1981</v>
+        <v>2102</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -57226,7 +57856,7 @@
     </row>
     <row r="134" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="5" t="s">
-        <v>1982</v>
+        <v>2103</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -57251,7 +57881,7 @@
     </row>
     <row r="135" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="5" t="s">
-        <v>1983</v>
+        <v>2104</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -57276,7 +57906,7 @@
     </row>
     <row r="136" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="5" t="s">
-        <v>1984</v>
+        <v>2105</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -57301,7 +57931,7 @@
     </row>
     <row r="137" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="5" t="s">
-        <v>1985</v>
+        <v>2106</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -57326,7 +57956,7 @@
     </row>
     <row r="138" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="5" t="s">
-        <v>1986</v>
+        <v>2107</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -57351,7 +57981,7 @@
     </row>
     <row r="139" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="5" t="s">
-        <v>1987</v>
+        <v>2108</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -57376,7 +58006,7 @@
     </row>
     <row r="140" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="5" t="s">
-        <v>1988</v>
+        <v>2109</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -57401,7 +58031,7 @@
     </row>
     <row r="141" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="5" t="s">
-        <v>1878</v>
+        <v>2001</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -57426,7 +58056,7 @@
     </row>
     <row r="142" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="5" t="s">
-        <v>1989</v>
+        <v>2110</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -57451,7 +58081,7 @@
     </row>
     <row r="143" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="5" t="s">
-        <v>1923</v>
+        <v>2046</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -57476,7 +58106,7 @@
     </row>
     <row r="144" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="5" t="s">
-        <v>1990</v>
+        <v>2111</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -57501,7 +58131,7 @@
     </row>
     <row r="145" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="5" t="s">
-        <v>1991</v>
+        <v>2112</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -57526,7 +58156,7 @@
     </row>
     <row r="146" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="5" t="s">
-        <v>1992</v>
+        <v>2113</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -57576,7 +58206,7 @@
     </row>
     <row r="148" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="5" t="s">
-        <v>1993</v>
+        <v>2114</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -57601,7 +58231,7 @@
     </row>
     <row r="149" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="5" t="s">
-        <v>1994</v>
+        <v>2115</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -57626,7 +58256,7 @@
     </row>
     <row r="150" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="5" t="s">
-        <v>1995</v>
+        <v>2116</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -57651,7 +58281,7 @@
     </row>
     <row r="151" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="5" t="s">
-        <v>1996</v>
+        <v>2117</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -57676,7 +58306,7 @@
     </row>
     <row r="152" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="5" t="s">
-        <v>1997</v>
+        <v>2118</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -57701,7 +58331,7 @@
     </row>
     <row r="153" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="5" t="s">
-        <v>1998</v>
+        <v>2119</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -57726,7 +58356,7 @@
     </row>
     <row r="154" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="5" t="s">
-        <v>1901</v>
+        <v>2024</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -57751,7 +58381,7 @@
     </row>
     <row r="155" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="5" t="s">
-        <v>1999</v>
+        <v>2120</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -57776,7 +58406,7 @@
     </row>
     <row r="156" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="5" t="s">
-        <v>2000</v>
+        <v>2121</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -57826,7 +58456,7 @@
     </row>
     <row r="158" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="5" t="s">
-        <v>2001</v>
+        <v>2122</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -57851,7 +58481,7 @@
     </row>
     <row r="159" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="5" t="s">
-        <v>2002</v>
+        <v>2123</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -57901,7 +58531,7 @@
     </row>
     <row r="161" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="5" t="s">
-        <v>1870</v>
+        <v>1993</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -57926,7 +58556,7 @@
     </row>
     <row r="162" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="5" t="s">
-        <v>2003</v>
+        <v>2124</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -57951,7 +58581,7 @@
     </row>
     <row r="163" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="5" t="s">
-        <v>2004</v>
+        <v>2125</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -57976,7 +58606,7 @@
     </row>
     <row r="164" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="5" t="s">
-        <v>2005</v>
+        <v>2126</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -58001,7 +58631,7 @@
     </row>
     <row r="165" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="5" t="s">
-        <v>2006</v>
+        <v>2127</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -58026,7 +58656,7 @@
     </row>
     <row r="166" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="5" t="s">
-        <v>2007</v>
+        <v>2128</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -58051,7 +58681,7 @@
     </row>
     <row r="167" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="5" t="s">
-        <v>2008</v>
+        <v>2129</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -58076,7 +58706,7 @@
     </row>
     <row r="168" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="5" t="s">
-        <v>2009</v>
+        <v>2130</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -58101,7 +58731,7 @@
     </row>
     <row r="169" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="5" t="s">
-        <v>2010</v>
+        <v>2131</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -58126,7 +58756,7 @@
     </row>
     <row r="170" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="28" t="s">
-        <v>2011</v>
+        <v>2132</v>
       </c>
       <c r="C170" s="26"/>
       <c r="D170" s="26"/>
@@ -58360,7 +58990,7 @@
     </row>
     <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>2012</v>
+        <v>2133</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -58369,7 +58999,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="8"/>
       <c r="I6" s="5" t="s">
-        <v>2013</v>
+        <v>2134</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
@@ -58389,7 +59019,7 @@
     </row>
     <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
-        <v>2014</v>
+        <v>2135</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -58398,7 +59028,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="8"/>
       <c r="I7" s="5" t="s">
-        <v>2015</v>
+        <v>2136</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
@@ -58466,7 +59096,7 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>2016</v>
+        <v>2137</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -58491,7 +59121,7 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>2017</v>
+        <v>2138</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -58516,7 +59146,7 @@
     </row>
     <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>2018</v>
+        <v>2139</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -58541,7 +59171,7 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>2019</v>
+        <v>2140</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -61949,55 +62579,55 @@
         <v>1129</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>2020</v>
+        <v>2141</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2021</v>
+        <v>2142</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>2022</v>
+        <v>2143</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="8" t="s">
-        <v>2023</v>
+        <v>2144</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>2024</v>
+        <v>2145</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>2025</v>
+        <v>2146</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>2026</v>
+        <v>2147</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="13"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6" t="s">
-        <v>2027</v>
+        <v>2148</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>2028</v>
+        <v>2149</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>2029</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
-        <v>2030</v>
+        <v>2151</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>2031</v>
+        <v>2152</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>2032</v>
+        <v>2153</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -62006,10 +62636,10 @@
         <v>992</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2033</v>
+        <v>2154</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>2034</v>
+        <v>2155</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>30</v>
@@ -62024,7 +62654,7 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>2035</v>
+        <v>2156</v>
       </c>
       <c r="V7" s="8"/>
     </row>
@@ -62033,22 +62663,22 @@
         <v>1467</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>2036</v>
+        <v>2157</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2037</v>
+        <v>2158</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="8" t="s">
-        <v>2038</v>
+        <v>2159</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>2039</v>
+        <v>2160</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>2040</v>
+        <v>2161</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>486</v>
@@ -62063,32 +62693,32 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6" t="s">
-        <v>2041</v>
+        <v>2162</v>
       </c>
       <c r="V8" s="8"/>
     </row>
     <row r="9" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>2042</v>
+        <v>2163</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>2043</v>
+        <v>2164</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="8" t="s">
-        <v>2044</v>
+        <v>2165</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>2045</v>
+        <v>2166</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>2046</v>
+        <v>2167</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>2047</v>
+        <v>2168</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="18"/>
@@ -62100,7 +62730,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6" t="s">
-        <v>2048</v>
+        <v>2169</v>
       </c>
       <c r="V9" s="8"/>
     </row>
@@ -62109,20 +62739,20 @@
         <v>1101</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>2049</v>
+        <v>2170</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="8" t="s">
-        <v>2050</v>
+        <v>2171</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>2051</v>
+        <v>2172</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>2052</v>
+        <v>2173</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -62135,16 +62765,16 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6" t="s">
-        <v>2053</v>
+        <v>2174</v>
       </c>
       <c r="V10" s="8"/>
     </row>
     <row r="11" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>1905</v>
+        <v>2028</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>2054</v>
+        <v>2175</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -62152,10 +62782,10 @@
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
       <c r="I11" s="5" t="s">
-        <v>2055</v>
+        <v>2176</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>2056</v>
+        <v>2177</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -62168,16 +62798,16 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6" t="s">
-        <v>2057</v>
+        <v>2178</v>
       </c>
       <c r="V11" s="8"/>
     </row>
     <row r="12" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>2058</v>
+        <v>2179</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>2059</v>
+        <v>2180</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -62185,10 +62815,10 @@
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
       <c r="I12" s="5" t="s">
-        <v>2060</v>
+        <v>2181</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>2061</v>
+        <v>2182</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -62201,16 +62831,16 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6" t="s">
-        <v>2062</v>
+        <v>2183</v>
       </c>
       <c r="V12" s="8"/>
     </row>
     <row r="13" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>2063</v>
+        <v>2184</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>2064</v>
+        <v>2185</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -62218,10 +62848,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="8"/>
       <c r="I13" s="5" t="s">
-        <v>2065</v>
+        <v>2186</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>2066</v>
+        <v>2187</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -62234,16 +62864,16 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6" t="s">
-        <v>2067</v>
+        <v>2188</v>
       </c>
       <c r="V13" s="8"/>
     </row>
     <row r="14" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>2068</v>
+        <v>2189</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>2069</v>
+        <v>2190</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -62251,10 +62881,10 @@
       <c r="G14" s="6"/>
       <c r="H14" s="8"/>
       <c r="I14" s="5" t="s">
-        <v>2070</v>
+        <v>2191</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>2071</v>
+        <v>2192</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -62267,16 +62897,16 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6" t="s">
-        <v>2072</v>
+        <v>2193</v>
       </c>
       <c r="V14" s="8"/>
     </row>
     <row r="15" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
-        <v>2073</v>
+        <v>2194</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>2069</v>
+        <v>2190</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -62284,7 +62914,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="8"/>
       <c r="I15" s="5" t="s">
-        <v>2074</v>
+        <v>2195</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -62298,16 +62928,16 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6" t="s">
-        <v>2075</v>
+        <v>2196</v>
       </c>
       <c r="V15" s="8"/>
     </row>
     <row r="16" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>2076</v>
+        <v>2197</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>2077</v>
+        <v>2198</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -62315,7 +62945,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="8"/>
       <c r="I16" s="5" t="s">
-        <v>2078</v>
+        <v>2199</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -62329,13 +62959,13 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6" t="s">
-        <v>2079</v>
+        <v>2200</v>
       </c>
       <c r="V16" s="8"/>
     </row>
     <row r="17" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
-        <v>2080</v>
+        <v>2201</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>1644</v>
@@ -62346,7 +62976,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="8"/>
       <c r="I17" s="5" t="s">
-        <v>2081</v>
+        <v>2202</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -62364,10 +62994,10 @@
     </row>
     <row r="18" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
-        <v>2082</v>
+        <v>2203</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>2083</v>
+        <v>2204</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -62375,7 +63005,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="8"/>
       <c r="I18" s="5" t="s">
-        <v>2084</v>
+        <v>2205</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -62393,10 +63023,10 @@
     </row>
     <row r="19" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="s">
-        <v>2085</v>
+        <v>2206</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>2086</v>
+        <v>2207</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -62404,7 +63034,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="8"/>
       <c r="I19" s="5" t="s">
-        <v>2087</v>
+        <v>2208</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -62422,7 +63052,7 @@
     </row>
     <row r="20" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
-        <v>1872</v>
+        <v>1995</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -62447,7 +63077,7 @@
     </row>
     <row r="21" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
-        <v>2088</v>
+        <v>2209</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -62472,7 +63102,7 @@
     </row>
     <row r="22" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
-        <v>2089</v>
+        <v>2210</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -62497,7 +63127,7 @@
     </row>
     <row r="23" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="s">
-        <v>2090</v>
+        <v>2211</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -62522,7 +63152,7 @@
     </row>
     <row r="24" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="s">
-        <v>2091</v>
+        <v>2212</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -62547,7 +63177,7 @@
     </row>
     <row r="25" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
-        <v>2092</v>
+        <v>2213</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -62572,7 +63202,7 @@
     </row>
     <row r="26" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="s">
-        <v>2093</v>
+        <v>2214</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -62597,7 +63227,7 @@
     </row>
     <row r="27" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="s">
-        <v>2094</v>
+        <v>2215</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -62622,7 +63252,7 @@
     </row>
     <row r="28" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="s">
-        <v>2095</v>
+        <v>2216</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -62647,7 +63277,7 @@
     </row>
     <row r="29" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="s">
-        <v>2096</v>
+        <v>2217</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -62672,7 +63302,7 @@
     </row>
     <row r="30" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="s">
-        <v>2097</v>
+        <v>2218</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -62697,7 +63327,7 @@
     </row>
     <row r="31" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="s">
-        <v>2098</v>
+        <v>2219</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -62722,7 +63352,7 @@
     </row>
     <row r="32" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="5" t="s">
-        <v>2099</v>
+        <v>2220</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -62747,7 +63377,7 @@
     </row>
     <row r="33" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5" t="s">
-        <v>2100</v>
+        <v>2221</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -62772,7 +63402,7 @@
     </row>
     <row r="34" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="5" t="s">
-        <v>2101</v>
+        <v>2222</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -62822,7 +63452,7 @@
     </row>
     <row r="36" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="s">
-        <v>2102</v>
+        <v>2223</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -62847,7 +63477,7 @@
     </row>
     <row r="37" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5" t="s">
-        <v>2103</v>
+        <v>2224</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -62872,7 +63502,7 @@
     </row>
     <row r="38" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5" t="s">
-        <v>2104</v>
+        <v>2225</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -62897,7 +63527,7 @@
     </row>
     <row r="39" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="s">
-        <v>2105</v>
+        <v>2226</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -62922,7 +63552,7 @@
     </row>
     <row r="40" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5" t="s">
-        <v>2106</v>
+        <v>2227</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -62947,7 +63577,7 @@
     </row>
     <row r="41" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="s">
-        <v>2107</v>
+        <v>2228</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -62972,7 +63602,7 @@
     </row>
     <row r="42" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5" t="s">
-        <v>2108</v>
+        <v>2229</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -62997,7 +63627,7 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="s">
-        <v>2109</v>
+        <v>2230</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -63022,7 +63652,7 @@
     </row>
     <row r="44" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="s">
-        <v>1877</v>
+        <v>2000</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -63047,7 +63677,7 @@
     </row>
     <row r="45" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="s">
-        <v>2110</v>
+        <v>2231</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -63072,7 +63702,7 @@
     </row>
     <row r="46" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="s">
-        <v>2111</v>
+        <v>2232</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -63097,7 +63727,7 @@
     </row>
     <row r="47" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="s">
-        <v>2112</v>
+        <v>2233</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -63122,7 +63752,7 @@
     </row>
     <row r="48" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5" t="s">
-        <v>2113</v>
+        <v>2234</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -63147,7 +63777,7 @@
     </row>
     <row r="49" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="5" t="s">
-        <v>2114</v>
+        <v>2235</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -63172,7 +63802,7 @@
     </row>
     <row r="50" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5" t="s">
-        <v>2115</v>
+        <v>2236</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -63197,7 +63827,7 @@
     </row>
     <row r="51" s="4" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="5" t="s">
-        <v>2116</v>
+        <v>2237</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -63222,7 +63852,7 @@
     </row>
     <row r="52" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5" t="s">
-        <v>2117</v>
+        <v>2238</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -63247,7 +63877,7 @@
     </row>
     <row r="53" s="4" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="5" t="s">
-        <v>2118</v>
+        <v>2239</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -63272,7 +63902,7 @@
     </row>
     <row r="54" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="5" t="s">
-        <v>2119</v>
+        <v>2240</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -63297,7 +63927,7 @@
     </row>
     <row r="55" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="5" t="s">
-        <v>2120</v>
+        <v>2241</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -63322,7 +63952,7 @@
     </row>
     <row r="56" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="s">
-        <v>2121</v>
+        <v>2242</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -63347,7 +63977,7 @@
     </row>
     <row r="57" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="5" t="s">
-        <v>2122</v>
+        <v>2243</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -63372,7 +64002,7 @@
     </row>
     <row r="58" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="5" t="s">
-        <v>2123</v>
+        <v>2244</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -63397,7 +64027,7 @@
     </row>
     <row r="59" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="5" t="s">
-        <v>2124</v>
+        <v>2245</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -63422,7 +64052,7 @@
     </row>
     <row r="60" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="5" t="s">
-        <v>2125</v>
+        <v>2246</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -63447,7 +64077,7 @@
     </row>
     <row r="61" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="5" t="s">
-        <v>2126</v>
+        <v>2247</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -63472,7 +64102,7 @@
     </row>
     <row r="62" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="5" t="s">
-        <v>2127</v>
+        <v>2248</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -63497,7 +64127,7 @@
     </row>
     <row r="63" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="5" t="s">
-        <v>2128</v>
+        <v>2249</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -63522,7 +64152,7 @@
     </row>
     <row r="64" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="5" t="s">
-        <v>2129</v>
+        <v>2250</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -63547,7 +64177,7 @@
     </row>
     <row r="65" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="5" t="s">
-        <v>2130</v>
+        <v>2251</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -63572,7 +64202,7 @@
     </row>
     <row r="66" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="5" t="s">
-        <v>2131</v>
+        <v>2252</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
